--- a/sequences/21_localizer.xlsx
+++ b/sequences/21_localizer.xlsx
@@ -43,589 +43,682 @@
     <t>dog</t>
   </si>
   <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
     <t>flower/flower013.png</t>
   </si>
   <si>
-    <t>face/face003.png</t>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
   </si>
   <si>
     <t>car/car009.png</t>
   </si>
   <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
   </si>
   <si>
     <t>car/car004.png</t>
   </si>
   <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
     <t>car/car003.png</t>
   </si>
   <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
   </si>
   <si>
     <t>face/face029.png</t>
   </si>
   <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
     <t>flower/flower018.png</t>
   </si>
   <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
+    <t>flower/flower029.png</t>
   </si>
   <si>
     <t>face/face021.png</t>
   </si>
   <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
   </si>
   <si>
     <t>dog/dog028.png</t>
   </si>
   <si>
-    <t>face/face026.png</t>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
   </si>
   <si>
     <t>dog/dog016.png</t>
   </si>
   <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
     <t>dog/dog027.png</t>
   </si>
   <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
   </si>
   <si>
     <t>dog/dog032.png</t>
   </si>
   <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
     <t>flower/flower038.png</t>
   </si>
   <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
     <t>face/face041.png</t>
   </si>
   <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
   </si>
   <si>
     <t>car/car063.png</t>
   </si>
   <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
     <t>dog/dog051.png</t>
   </si>
   <si>
-    <t>face/face056.png</t>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
   </si>
   <si>
     <t>car/car049.png</t>
@@ -634,181 +727,88 @@
     <t>flower/flower055.png</t>
   </si>
   <si>
-    <t>face/face048.png</t>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
   </si>
   <si>
     <t>face/face053.png</t>
   </si>
   <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
   </si>
   <si>
     <t>car/car058.png</t>
   </si>
   <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
     <t>flower/flower051.png</t>
   </si>
   <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
   </si>
   <si>
     <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.451631909296726</v>
+        <v>1.32863107950223</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.503760749024337</v>
+        <v>1.368564127071932</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.363674828649046</v>
+        <v>1.611466451268034</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.353303042127613</v>
+        <v>1.585465227593305</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.345881840238985</v>
+        <v>1.321385568984628</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.477112057226778</v>
+        <v>1.30521701102322</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.695620566475884</v>
+        <v>1.530695083024326</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.661049216417441</v>
+        <v>1.478322909286176</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.510748511804776</v>
+        <v>1.392969050808982</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.389578907071357</v>
+        <v>1.621034697009619</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1.747263904594571</v>
+        <v>1.522628795327981</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.503604839935468</v>
+        <v>1.409939060384145</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.728182987868443</v>
+        <v>1.468726813531294</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.585473122404217</v>
+        <v>1.683897487927047</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.376173976726627</v>
+        <v>1.619493975823777</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.552956624093228</v>
+        <v>1.659801741080698</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.594043338992155</v>
+        <v>1.37510276344425</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.501741733518449</v>
+        <v>1.505649274788527</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.353625601378522</v>
+        <v>1.486314032733781</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.372394894186574</v>
+        <v>1.686830500300491</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.608187966084292</v>
+        <v>1.576101120195327</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.27448649940618</v>
+        <v>1.576785350054572</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.453779041800967</v>
+        <v>1.783715862584861</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.560263346423927</v>
+        <v>1.616676364407261</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.677855461725196</v>
+        <v>1.378563139866307</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.170384415375017</v>
+        <v>1.6114312018417</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.526672162917696</v>
+        <v>1.517115545545493</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.45648069788489</v>
+        <v>1.354196240519666</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.598020755091182</v>
+        <v>1.459136628862948</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.371871025767277</v>
+        <v>1.571531706709504</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.326884247634703</v>
+        <v>1.453187921515465</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.387799662410661</v>
+        <v>1.584374040904621</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.422953554471199</v>
+        <v>1.632583393362484</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.425752594637205</v>
+        <v>1.516265135693057</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.555991829171513</v>
+        <v>1.519773763304345</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.660252562629474</v>
+        <v>1.569093620084973</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.482659282237665</v>
+        <v>1.331418394444444</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.29637518938145</v>
+        <v>1.630556362117224</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.730647530359427</v>
+        <v>1.338741977337951</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.362583314466391</v>
+        <v>1.462502540600532</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.581071856112941</v>
+        <v>1.440571273380371</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.582470533546629</v>
+        <v>1.333094053004731</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.41518709003531</v>
+        <v>1.859779872904892</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.46914791412478</v>
+        <v>1.537010480977095</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.371208714815973</v>
+        <v>1.471881762211443</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.605324974427224</v>
+        <v>1.291226877270591</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.66082672745702</v>
+        <v>1.46318147370758</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.596712944929348</v>
+        <v>1.445966043507022</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.33754411434645</v>
+        <v>1.484234258576249</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.423418362498828</v>
+        <v>1.286492465137284</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.619894863914223</v>
+        <v>1.310660691179523</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.570987516414901</v>
+        <v>1.331755428211796</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.491685771941524</v>
+        <v>1.402556835969051</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.262547411930591</v>
+        <v>1.593932133190961</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.647076448995097</v>
+        <v>1.517476995374369</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.696910895895227</v>
+        <v>1.649865865615458</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.698261221194767</v>
+        <v>1.503164890534995</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1.828800094285517</v>
+        <v>1.372242624133511</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.687201200889943</v>
+        <v>1.498913636625009</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.437778026331203</v>
+        <v>1.37585100841315</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.76128010884023</v>
+        <v>1.295675116442661</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.154911278999879</v>
+        <v>1.504331074831958</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.675838000690688</v>
+        <v>1.294362270891954</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.686131667635015</v>
+        <v>1.332305454990244</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.681656218030796</v>
+        <v>1.309652658595395</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.61760475550047</v>
+        <v>1.582638138554267</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.394991620396207</v>
+        <v>1.371533260311747</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.717591493260359</v>
+        <v>1.562540157732413</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.578910700577435</v>
+        <v>1.516991601335241</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.36391231290319</v>
+        <v>1.70804303369072</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.65363946694489</v>
+        <v>1.40065481732594</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.651191959218298</v>
+        <v>1.26833832611142</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.397565007500071</v>
+        <v>1.661418421426095</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.407408523553421</v>
+        <v>1.531611879256668</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.433902055816203</v>
+        <v>1.741394140277561</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.483836273346623</v>
+        <v>1.667170511286313</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.671406675923274</v>
+        <v>1.682903740226342</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.550624413429479</v>
+        <v>1.526722199640917</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>1.409543711794944</v>
+        <v>1.416072023712503</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.310828793544218</v>
+        <v>1.526584674918396</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.420233806006698</v>
+        <v>1.224470078533262</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.698496166652983</v>
+        <v>1.817081027760024</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.529330382299294</v>
+        <v>1.595323833334091</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.398618875792097</v>
+        <v>1.607444121580295</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.470369099050282</v>
+        <v>1.501908439204156</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.498868363464271</v>
+        <v>1.379935982155098</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.461069208173994</v>
+        <v>1.39003689353687</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.488644167175862</v>
+        <v>1.479512012831569</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.39684549594781</v>
+        <v>1.645599984910908</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.533288308284275</v>
+        <v>1.437994639440516</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.606990529114754</v>
+        <v>1.500039861040986</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.626015960211909</v>
+        <v>1.366046808739824</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.720123071328086</v>
+        <v>1.433337079579314</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.602613676289661</v>
+        <v>1.37921171893635</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.616773244204408</v>
+        <v>1.648651324089746</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.507805901605246</v>
+        <v>1.788190987143033</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.506939244512532</v>
+        <v>1.420859317348028</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.579679963304088</v>
+        <v>1.204487602996967</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.706139290863675</v>
+        <v>1.48475640369031</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1.698335575745207</v>
+        <v>1.372788634236745</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.650916194452347</v>
+        <v>1.465124013566192</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.493055745075175</v>
+        <v>1.52677797660972</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.593534684786266</v>
+        <v>1.601167167927535</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.625334813742219</v>
+        <v>1.803740808831759</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.353201611618329</v>
+        <v>1.563569293752841</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.574508498823851</v>
+        <v>1.369157913281447</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.741608357113866</v>
+        <v>1.46892497870696</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.471877592758851</v>
+        <v>1.416772178193874</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.22543464363004</v>
+        <v>1.558718002704664</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.340385488342156</v>
+        <v>1.648995912082492</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.818902852886857</v>
+        <v>1.75527149762011</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.546465470930448</v>
+        <v>1.473762360909635</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.449122197767601</v>
+        <v>1.748087284197819</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.566808159020314</v>
+        <v>1.50555411690537</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.769531946416701</v>
+        <v>1.459494243952555</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>1.770313872534745</v>
+        <v>1.600752371011831</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.343469373774425</v>
+        <v>1.32456005539613</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.379882645657048</v>
+        <v>1.568227988159205</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.479053081728947</v>
+        <v>1.429761869118032</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.654615876334506</v>
+        <v>1.591851062212408</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.746265311321837</v>
+        <v>1.56269436714871</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.462822725367466</v>
+        <v>1.735866303394116</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.481166854550382</v>
+        <v>1.597774586266222</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.468247679087255</v>
+        <v>1.284854247375399</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.418450853768109</v>
+        <v>1.383835643036498</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.285121796133999</v>
+        <v>1.302155977330011</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.288752372834397</v>
+        <v>1.316887891771807</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.630053223761703</v>
+        <v>1.305764738391364</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.486744266056616</v>
+        <v>1.343302349154794</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.414372957791804</v>
+        <v>1.574368851178908</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.305813635390071</v>
+        <v>1.400393495830316</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.614262382628711</v>
+        <v>1.269149951651386</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.536790580180127</v>
+        <v>1.698350002171081</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.377892097598308</v>
+        <v>1.254389010580056</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.6786987208521</v>
+        <v>1.543115157764192</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.614930200814507</v>
+        <v>1.191856992557325</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.288494422953225</v>
+        <v>1.232143871978379</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.527715372570674</v>
+        <v>1.388946046139672</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.396149169894477</v>
+        <v>1.377246010917603</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.611253504087285</v>
+        <v>1.442617173120755</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.68694537034343</v>
+        <v>1.492476928946083</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.747155925721279</v>
+        <v>1.345580351848231</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.18857453914632</v>
+        <v>1.255190350227042</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.446853198108772</v>
+        <v>1.238013610410178</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.431023536629775</v>
+        <v>1.041468849695992</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.456114571157676</v>
+        <v>1.573602416098372</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.432975930589192</v>
+        <v>1.367897070687754</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.673456348043135</v>
+        <v>1.508401231436461</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.31430745621119</v>
+        <v>1.510498974338239</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.516635106644105</v>
+        <v>1.437139802084222</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.353409727430267</v>
+        <v>1.758094836646146</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.527959367581049</v>
+        <v>1.382371900171904</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.432296854428316</v>
+        <v>1.58321588818637</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.822594056386776</v>
+        <v>1.354020391335438</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.325063092999043</v>
+        <v>1.25292803628765</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.595009673450178</v>
+        <v>1.659567619333214</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.561068946559061</v>
+        <v>1.404273342199137</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.727913087078021</v>
+        <v>1.194987788291166</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.207003404459445</v>
+        <v>1.357673631593151</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.867257796845647</v>
+        <v>1.206552413609977</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.384702962390872</v>
+        <v>1.476545576270335</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="F163">
-        <v>1.786899393052229</v>
+        <v>1.601015666485761</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.499287097160319</v>
+        <v>1.285392803038942</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.549348195755229</v>
+        <v>1.769271217394622</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.467932868430013</v>
+        <v>1.349480680559403</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.673493263350178</v>
+        <v>1.541428808095772</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.446028914497339</v>
+        <v>1.611430511462405</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="F169">
-        <v>1.473897108463289</v>
+        <v>1.630676235848704</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.58140260406102</v>
+        <v>1.470126051958894</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.645392246971805</v>
+        <v>1.542431748279526</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.467070316344829</v>
+        <v>1.519563438910848</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.890390425342273</v>
+        <v>1.406958200742156</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.528935534049934</v>
+        <v>1.473108148764164</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.677051350142881</v>
+        <v>1.572482806994262</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.661379329307873</v>
+        <v>1.512678777495399</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.505462605707635</v>
+        <v>1.615876082991875</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.58592480115289</v>
+        <v>1.466532158939984</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.424715875991856</v>
+        <v>1.771454893005712</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.548909919012631</v>
+        <v>1.409949504452009</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.835100710002648</v>
+        <v>1.451862594593577</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.307590594391513</v>
+        <v>1.541935489829931</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.556956553770242</v>
+        <v>1.287816042747763</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.441755922806979</v>
+        <v>1.540934449939869</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.517564860031609</v>
+        <v>1.587460139209533</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.351929474766283</v>
+        <v>1.497840956394331</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.365859201041571</v>
+        <v>1.39519771210338</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.469408415996426</v>
+        <v>1.620339210247033</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.868486207691244</v>
+        <v>1.267618612517017</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.555680793071383</v>
+        <v>1.639974619300022</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.351889775643976</v>
+        <v>1.476238645626569</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.53934566441646</v>
+        <v>1.831743879444297</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.594071863865964</v>
+        <v>1.68897050791277</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.280328712274146</v>
+        <v>1.425022911487972</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.412282911484167</v>
+        <v>1.428416688736894</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.567025943576104</v>
+        <v>1.829184430663295</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.327564330086995</v>
+        <v>1.58298979929592</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.486382084471288</v>
+        <v>1.282740697511989</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.753140990814568</v>
+        <v>1.573255836633859</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.428478635621508</v>
+        <v>1.376250129279795</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.380623073851225</v>
+        <v>1.44441490989573</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.775959040049206</v>
+        <v>1.756990556268348</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.687521520734524</v>
+        <v>1.199061524119618</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.648383320868267</v>
+        <v>1.48678737017673</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.638533673371312</v>
+        <v>1.370563407929016</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.74393804737957</v>
+        <v>1.798271317771207</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.511603773010717</v>
+        <v>1.784835669354381</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.629589986718171</v>
+        <v>1.339241871114701</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.582157971038141</v>
+        <v>1.608317920979699</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.430103852893824</v>
+        <v>1.445328491068786</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.451047195627487</v>
+        <v>1.576132074858012</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.150319917604278</v>
+        <v>1.334525951983874</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.437476853011723</v>
+        <v>1.570716484721098</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.711301627842311</v>
+        <v>1.493452094123832</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.394906513864791</v>
+        <v>1.433052465224557</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.452479133880789</v>
+        <v>1.433150881003097</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.446518603575877</v>
+        <v>1.581244476315667</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.328823282710404</v>
+        <v>1.44464733850571</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.428358572369155</v>
+        <v>1.47884061935754</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.533647999387281</v>
+        <v>1.622818538632141</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.349474916743987</v>
+        <v>1.237797108911383</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.50246944143711</v>
+        <v>1.490440313863735</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.72932561513539</v>
+        <v>1.513171710610083</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.448199467691169</v>
+        <v>1.47228051344766</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.460105728622575</v>
+        <v>1.330704956641448</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.416897690205592</v>
+        <v>1.534935457730131</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.150210049989316</v>
+        <v>1.342488527098584</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.5769432910401</v>
+        <v>1.588380628119493</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.174476838629847</v>
+        <v>1.587768982448525</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.466256486200556</v>
+        <v>1.570112730193369</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.617586579926426</v>
+        <v>1.354585006042429</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.604247487083964</v>
+        <v>1.549872078081542</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.5516111303773</v>
+        <v>1.605072815599882</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.363419877432852</v>
+        <v>1.669292804272082</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.402231333523017</v>
+        <v>1.398183501388492</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.507288233956155</v>
+        <v>1.391996039671541</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.399450639240912</v>
+        <v>1.622233781165402</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.580319581880078</v>
+        <v>1.612321600136028</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.417497711315594</v>
+        <v>1.507833973306588</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.537349846365795</v>
+        <v>1.505777226616991</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.365113228191857</v>
+        <v>1.247605284670585</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.280136712423858</v>
+        <v>1.588251425997613</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.253147777729274</v>
+        <v>1.0490830358923</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.591689207626125</v>
+        <v>1.353544529648222</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.332672051845568</v>
+        <v>1.414137623541917</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.394792995126066</v>
+        <v>1.439236352026434</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.586257697688108</v>
+        <v>1.440743791767914</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.591452782403388</v>
+        <v>1.471928394277644</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.27491732167332</v>
+        <v>1.405416051708408</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.442096600145197</v>
+        <v>1.313802848534524</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.610945519425415</v>
+        <v>1.440708160824</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.465364545962817</v>
+        <v>1.559749719883819</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.502499080308338</v>
+        <v>1.627328659299984</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.401735559323013</v>
+        <v>1.548693566967182</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.291431678489502</v>
+        <v>1.536688450975326</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.272636097902494</v>
+        <v>1.487706525121663</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.741422020212109</v>
+        <v>1.499734534115556</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/21_localizer.xlsx
+++ b/sequences/21_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.32863107950223</v>
+        <v>1.496209409428153</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.368564127071932</v>
+        <v>1.442147650301687</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.611466451268034</v>
+        <v>1.465719565170337</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.585465227593305</v>
+        <v>1.293466628463986</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.321385568984628</v>
+        <v>1.822388090129008</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.30521701102322</v>
+        <v>1.151814044208019</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.530695083024326</v>
+        <v>1.446949298337654</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.478322909286176</v>
+        <v>1.366574114921794</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.392969050808982</v>
+        <v>1.83681958081231</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.621034697009619</v>
+        <v>1.730600026494231</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.522628795327981</v>
+        <v>1.490290047155073</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.409939060384145</v>
+        <v>1.547502378920484</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.468726813531294</v>
+        <v>1.462297783017163</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.683897487927047</v>
+        <v>1.346093562036261</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.619493975823777</v>
+        <v>1.177791812099559</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.659801741080698</v>
+        <v>1.354369618121561</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.37510276344425</v>
+        <v>1.443844657977444</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.505649274788527</v>
+        <v>1.655914649693174</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.486314032733781</v>
+        <v>1.429293584751859</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.686830500300491</v>
+        <v>1.261742961100793</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.576101120195327</v>
+        <v>1.357159280383573</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.576785350054572</v>
+        <v>1.424051732888818</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.783715862584861</v>
+        <v>1.416975758448649</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.616676364407261</v>
+        <v>1.389629373023161</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.378563139866307</v>
+        <v>1.324880446871892</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.6114312018417</v>
+        <v>1.736723785409183</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.517115545545493</v>
+        <v>1.553211217394995</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.354196240519666</v>
+        <v>1.487467156468709</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.459136628862948</v>
+        <v>1.86276195453154</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.571531706709504</v>
+        <v>1.350743015901414</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.453187921515465</v>
+        <v>1.601536652713704</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.584374040904621</v>
+        <v>1.599778740733182</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.632583393362484</v>
+        <v>1.639044416599851</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.516265135693057</v>
+        <v>1.46922825999397</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.519773763304345</v>
+        <v>1.344560688151969</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.569093620084973</v>
+        <v>1.670840646621113</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.331418394444444</v>
+        <v>1.703483841848596</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.630556362117224</v>
+        <v>1.331949895687069</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.338741977337951</v>
+        <v>1.364286732169359</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.462502540600532</v>
+        <v>1.876147114627986</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.440571273380371</v>
+        <v>1.352362594562738</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.333094053004731</v>
+        <v>1.282163094257341</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.859779872904892</v>
+        <v>1.46758275429527</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.537010480977095</v>
+        <v>1.476627094357865</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.471881762211443</v>
+        <v>1.273362945996682</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.291226877270591</v>
+        <v>1.533785851790626</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.46318147370758</v>
+        <v>1.588540056083706</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.445966043507022</v>
+        <v>1.592158857547233</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.484234258576249</v>
+        <v>1.526251015778319</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.286492465137284</v>
+        <v>1.684852394926106</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.310660691179523</v>
+        <v>1.580902289348466</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.331755428211796</v>
+        <v>1.410446548520103</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.402556835969051</v>
+        <v>1.560616421578802</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.593932133190961</v>
+        <v>1.458051859306606</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.517476995374369</v>
+        <v>1.442917727979099</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.649865865615458</v>
+        <v>1.527563220511864</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.503164890534995</v>
+        <v>1.420181874124596</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.372242624133511</v>
+        <v>1.331234096488848</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.498913636625009</v>
+        <v>1.487002413251915</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.37585100841315</v>
+        <v>1.552630143098091</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.295675116442661</v>
+        <v>1.473078058484278</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.504331074831958</v>
+        <v>1.354397117539232</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.294362270891954</v>
+        <v>1.343098466780168</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.332305454990244</v>
+        <v>1.737206779685402</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.309652658595395</v>
+        <v>1.561978157056473</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.582638138554267</v>
+        <v>1.569806895248748</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.371533260311747</v>
+        <v>1.612620552668494</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.562540157732413</v>
+        <v>1.286073952635879</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.516991601335241</v>
+        <v>1.022160065557909</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.70804303369072</v>
+        <v>1.545981749579688</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.40065481732594</v>
+        <v>1.402857544805444</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.26833832611142</v>
+        <v>1.470284788830244</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.661418421426095</v>
+        <v>1.639326523483233</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.531611879256668</v>
+        <v>1.594066580814011</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.741394140277561</v>
+        <v>1.487680910188838</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.667170511286313</v>
+        <v>1.606923516341197</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.682903740226342</v>
+        <v>1.556014066868639</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.526722199640917</v>
+        <v>1.191845461368083</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.416072023712503</v>
+        <v>1.621052730050737</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.526584674918396</v>
+        <v>1.226576371431685</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.224470078533262</v>
+        <v>1.493857801791487</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.817081027760024</v>
+        <v>1.43397099445929</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.595323833334091</v>
+        <v>1.778176098195385</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.607444121580295</v>
+        <v>1.276956310993449</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.501908439204156</v>
+        <v>1.876895763288406</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.379935982155098</v>
+        <v>1.222026676813155</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.39003689353687</v>
+        <v>1.346439396461513</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.479512012831569</v>
+        <v>1.523403876118889</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.645599984910908</v>
+        <v>1.61784994571943</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.437994639440516</v>
+        <v>1.689817373439619</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.500039861040986</v>
+        <v>1.57905171848522</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.366046808739824</v>
+        <v>1.333020747111162</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.433337079579314</v>
+        <v>1.759485849070015</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.37921171893635</v>
+        <v>1.344334673996687</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.648651324089746</v>
+        <v>1.772008090850357</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.788190987143033</v>
+        <v>1.376484429599147</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.420859317348028</v>
+        <v>1.400664463147878</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.204487602996967</v>
+        <v>1.713661395359567</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.48475640369031</v>
+        <v>1.513588940128968</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1.372788634236745</v>
+        <v>1.646569071448946</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.465124013566192</v>
+        <v>1.361666024255072</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.52677797660972</v>
+        <v>1.095863912645229</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.601167167927535</v>
+        <v>1.460031812138272</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.803740808831759</v>
+        <v>1.614781497539865</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.563569293752841</v>
+        <v>1.521442434688622</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.369157913281447</v>
+        <v>1.418028615349548</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.46892497870696</v>
+        <v>1.329557123720128</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.416772178193874</v>
+        <v>1.285400253790406</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.558718002704664</v>
+        <v>1.355490548271446</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.648995912082492</v>
+        <v>1.411688889936646</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.75527149762011</v>
+        <v>1.598147487585389</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.473762360909635</v>
+        <v>1.332950005574429</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.748087284197819</v>
+        <v>1.445437390911161</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.50555411690537</v>
+        <v>1.411579355642127</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.459494243952555</v>
+        <v>1.375675033860334</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.600752371011831</v>
+        <v>1.649094326191308</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.32456005539613</v>
+        <v>1.676556434779637</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.568227988159205</v>
+        <v>1.19610133308428</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.429761869118032</v>
+        <v>1.552626851640979</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.591851062212408</v>
+        <v>1.403547580528715</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.56269436714871</v>
+        <v>1.305228558029188</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.735866303394116</v>
+        <v>1.232845269403253</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.597774586266222</v>
+        <v>1.712465585614001</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.284854247375399</v>
+        <v>1.570383540623086</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.383835643036498</v>
+        <v>1.298009283275008</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.302155977330011</v>
+        <v>1.528415403305413</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.316887891771807</v>
+        <v>1.32829371873457</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.305764738391364</v>
+        <v>1.562310944067674</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.343302349154794</v>
+        <v>1.753495831889498</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.574368851178908</v>
+        <v>1.53892297046658</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.400393495830316</v>
+        <v>1.705283569581639</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.269149951651386</v>
+        <v>1.669010099829828</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.698350002171081</v>
+        <v>1.426866987421779</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.254389010580056</v>
+        <v>1.432230343661274</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.543115157764192</v>
+        <v>1.516595941070483</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.191856992557325</v>
+        <v>1.592503805164047</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.232143871978379</v>
+        <v>1.850342052937949</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.388946046139672</v>
+        <v>1.519186898128938</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.377246010917603</v>
+        <v>1.523013417863727</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.442617173120755</v>
+        <v>1.650442632519942</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.492476928946083</v>
+        <v>1.171317663172748</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.345580351848231</v>
+        <v>1.406415108402117</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.255190350227042</v>
+        <v>1.499724099093863</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.238013610410178</v>
+        <v>1.348954205825337</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.041468849695992</v>
+        <v>1.424510893419373</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.573602416098372</v>
+        <v>1.425635610262392</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.367897070687754</v>
+        <v>1.409313712212332</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.508401231436461</v>
+        <v>1.357876881060756</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.510498974338239</v>
+        <v>1.466511259958989</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.437139802084222</v>
+        <v>1.57369387471158</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.758094836646146</v>
+        <v>1.414531196226626</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.382371900171904</v>
+        <v>1.414102919980432</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.58321588818637</v>
+        <v>1.168211066688546</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.354020391335438</v>
+        <v>1.454725257874098</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.25292803628765</v>
+        <v>1.711439798571068</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.659567619333214</v>
+        <v>1.632584007211742</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.404273342199137</v>
+        <v>1.60142238608847</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.194987788291166</v>
+        <v>1.367294135106485</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.357673631593151</v>
+        <v>1.373919435522459</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.206552413609977</v>
+        <v>1.727133498669762</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.476545576270335</v>
+        <v>1.500819068727041</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.601015666485761</v>
+        <v>1.596526879232935</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.285392803038942</v>
+        <v>1.765851350462875</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.769271217394622</v>
+        <v>1.298031528878425</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.349480680559403</v>
+        <v>1.427225696142059</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.541428808095772</v>
+        <v>1.532626602667659</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.611430511462405</v>
+        <v>1.524794606687298</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.630676235848704</v>
+        <v>1.629886126410304</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.470126051958894</v>
+        <v>1.618168332822262</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.542431748279526</v>
+        <v>1.450764526684419</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.519563438910848</v>
+        <v>1.588781479376314</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.406958200742156</v>
+        <v>1.555584730757513</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.473108148764164</v>
+        <v>1.593280171894465</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.572482806994262</v>
+        <v>1.217647093274549</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.512678777495399</v>
+        <v>1.472887820380249</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.615876082991875</v>
+        <v>1.56950863146548</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.466532158939984</v>
+        <v>1.584348274955422</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.771454893005712</v>
+        <v>1.730765165807512</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.409949504452009</v>
+        <v>1.371204697594212</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.451862594593577</v>
+        <v>1.464222646876572</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.541935489829931</v>
+        <v>1.509898126982001</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.287816042747763</v>
+        <v>1.62050717540665</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.540934449939869</v>
+        <v>1.442114498526943</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.587460139209533</v>
+        <v>1.352825581090549</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.497840956394331</v>
+        <v>1.605941392862577</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.39519771210338</v>
+        <v>1.760352597291168</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.620339210247033</v>
+        <v>1.497094576832876</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.267618612517017</v>
+        <v>1.225795805748453</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.639974619300022</v>
+        <v>1.605808756692735</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.476238645626569</v>
+        <v>1.509172545173343</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.831743879444297</v>
+        <v>1.322036872092594</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.68897050791277</v>
+        <v>1.52535660979466</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.425022911487972</v>
+        <v>1.427521513837829</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.428416688736894</v>
+        <v>1.539945250181926</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.829184430663295</v>
+        <v>1.495163810576697</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.58298979929592</v>
+        <v>1.614639359192377</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.282740697511989</v>
+        <v>1.385087643873249</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.573255836633859</v>
+        <v>1.649212042648947</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.376250129279795</v>
+        <v>1.534010901537384</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.44441490989573</v>
+        <v>1.823166133224819</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.756990556268348</v>
+        <v>1.333127302485643</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.199061524119618</v>
+        <v>1.806313666704682</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.48678737017673</v>
+        <v>1.483708551251145</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.370563407929016</v>
+        <v>1.6571084588504</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.798271317771207</v>
+        <v>1.637110499594159</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.784835669354381</v>
+        <v>1.524928400327779</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.339241871114701</v>
+        <v>1.553783154765229</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.608317920979699</v>
+        <v>1.479967354884241</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.445328491068786</v>
+        <v>1.513268550320163</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.576132074858012</v>
+        <v>1.666103324117721</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.334525951983874</v>
+        <v>1.32639460841146</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.570716484721098</v>
+        <v>1.526044842519182</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.493452094123832</v>
+        <v>1.737469194072091</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.433052465224557</v>
+        <v>1.733173901454211</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.433150881003097</v>
+        <v>1.570369913869923</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.581244476315667</v>
+        <v>1.301420501875286</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.44464733850571</v>
+        <v>1.51739109798703</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.47884061935754</v>
+        <v>1.373916403517751</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.622818538632141</v>
+        <v>1.472724363507249</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.237797108911383</v>
+        <v>1.277284962169228</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.490440313863735</v>
+        <v>1.703484769305217</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.513171710610083</v>
+        <v>1.734355614468907</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.47228051344766</v>
+        <v>1.276887497129586</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.330704956641448</v>
+        <v>1.488057475356833</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.534935457730131</v>
+        <v>1.790663662072975</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>1.342488527098584</v>
+        <v>1.303897364318569</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.588380628119493</v>
+        <v>1.503681236567725</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.587768982448525</v>
+        <v>1.539390064461597</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.570112730193369</v>
+        <v>1.526845590504144</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.354585006042429</v>
+        <v>1.744642300797898</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.549872078081542</v>
+        <v>1.41080376941456</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.605072815599882</v>
+        <v>1.543241741342679</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.669292804272082</v>
+        <v>1.466732367321843</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.398183501388492</v>
+        <v>1.284106287156281</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.391996039671541</v>
+        <v>1.605377114668162</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.622233781165402</v>
+        <v>1.260797937174601</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.612321600136028</v>
+        <v>1.488807940939799</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.507833973306588</v>
+        <v>1.332163809334862</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.505777226616991</v>
+        <v>1.537771550647805</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.247605284670585</v>
+        <v>1.503054363216312</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.588251425997613</v>
+        <v>1.498861463873028</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.0490830358923</v>
+        <v>1.505521311522006</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.353544529648222</v>
+        <v>1.525732655758759</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.414137623541917</v>
+        <v>1.248152930323948</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.439236352026434</v>
+        <v>1.356863358425978</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.440743791767914</v>
+        <v>1.514305131072433</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.471928394277644</v>
+        <v>1.664716209729914</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.405416051708408</v>
+        <v>1.351150015507176</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.313802848534524</v>
+        <v>1.649803015699711</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.440708160824</v>
+        <v>1.552350296785369</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.559749719883819</v>
+        <v>1.489821491067864</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.627328659299984</v>
+        <v>1.555363912138311</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.548693566967182</v>
+        <v>1.214097049546804</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.536688450975326</v>
+        <v>1.442531821281715</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.487706525121663</v>
+        <v>1.401055063428183</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.499734534115556</v>
+        <v>1.597761384981587</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/21_localizer.xlsx
+++ b/sequences/21_localizer.xlsx
@@ -37,778 +37,778 @@
     <t>dog</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
   </si>
   <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
   </si>
   <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
     <t>dog/dog045.jpg</t>
   </si>
   <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
   </si>
   <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
-    <t>flower/flower037.jpg</t>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
   </si>
   <si>
     <t>house/house041.jpg</t>
   </si>
   <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
     <t>face/face045.jpg</t>
   </si>
   <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
   </si>
   <si>
     <t>house/house056.jpg</t>
   </si>
   <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
     <t>dog/dog049.jpg</t>
   </si>
   <si>
-    <t>flower/flower061.jpg</t>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
   </si>
   <si>
     <t>house/house053.jpg</t>
   </si>
   <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
   </si>
   <si>
     <t>dog/dog052.jpg</t>
   </si>
   <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
   </si>
   <si>
     <t>flower/flower064.jpg</t>
   </si>
   <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
     <t>house/house067.jpg</t>
   </si>
   <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
     <t>flower/flower076.jpg</t>
   </si>
   <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
+    <t>flower/flower067.jpg</t>
   </si>
   <si>
     <t>face/face066.jpg</t>
   </si>
   <si>
-    <t>dog/dog067.jpg</t>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
   </si>
   <si>
     <t>face/face069.jpg</t>
   </si>
   <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
   </si>
   <si>
     <t>dog/dog086.jpg</t>
   </si>
   <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
   </si>
   <si>
     <t>house/house080.jpg</t>
   </si>
   <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
   </si>
   <si>
     <t>flower/flower095.jpg</t>
   </si>
   <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
+    <t>flower/flower090.jpg</t>
   </si>
   <si>
     <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.496209409428153</v>
+        <v>1.312175946298449</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.442147650301687</v>
+        <v>1.735807982264614</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.465719565170337</v>
+        <v>1.629495632296336</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.293466628463986</v>
+        <v>1.556069582014488</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.822388090129008</v>
+        <v>1.674814675369821</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.151814044208019</v>
+        <v>1.424567840385152</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.446949298337654</v>
+        <v>1.439471408101655</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.366574114921794</v>
+        <v>1.582117385474366</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.83681958081231</v>
+        <v>1.622268650476459</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.730600026494231</v>
+        <v>1.146988251294071</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.490290047155073</v>
+        <v>1.430734674964929</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.547502378920484</v>
+        <v>1.48766505481537</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.462297783017163</v>
+        <v>1.540017186281945</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.346093562036261</v>
+        <v>1.690783548977174</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.177791812099559</v>
+        <v>1.263831998209963</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.354369618121561</v>
+        <v>1.394844986887963</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.443844657977444</v>
+        <v>1.533821259912973</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.655914649693174</v>
+        <v>1.621855788027853</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.429293584751859</v>
+        <v>1.622252823131828</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.261742961100793</v>
+        <v>1.495240941404034</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.357159280383573</v>
+        <v>1.255778355583418</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.424051732888818</v>
+        <v>1.438051254248825</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.416975758448649</v>
+        <v>1.744868669135193</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.389629373023161</v>
+        <v>1.856514818046104</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.324880446871892</v>
+        <v>1.481444089938264</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.736723785409183</v>
+        <v>1.608226681962629</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.553211217394995</v>
+        <v>1.812396175969957</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.487467156468709</v>
+        <v>1.628111271709676</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.86276195453154</v>
+        <v>1.526658453983322</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.350743015901414</v>
+        <v>1.673615545211024</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.601536652713704</v>
+        <v>1.399974655630375</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.599778740733182</v>
+        <v>1.477444822719217</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.639044416599851</v>
+        <v>1.4548481422182</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.46922825999397</v>
+        <v>1.567516654513155</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.344560688151969</v>
+        <v>1.614202519824158</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.670840646621113</v>
+        <v>1.612773310248198</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.703483841848596</v>
+        <v>1.739983225629441</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.331949895687069</v>
+        <v>1.64720610226314</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.364286732169359</v>
+        <v>1.423241982385816</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.876147114627986</v>
+        <v>1.540213319020882</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.352362594562738</v>
+        <v>1.705273719530706</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.282163094257341</v>
+        <v>1.466313141809155</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.46758275429527</v>
+        <v>1.677592163315221</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.476627094357865</v>
+        <v>1.193777289061562</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.273362945996682</v>
+        <v>1.435364773197797</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.533785851790626</v>
+        <v>1.529870858058361</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.588540056083706</v>
+        <v>1.479485719977889</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.592158857547233</v>
+        <v>1.377122475804254</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.526251015778319</v>
+        <v>1.566462376750251</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.684852394926106</v>
+        <v>1.25858963500735</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.580902289348466</v>
+        <v>1.395784261024106</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1.410446548520103</v>
+        <v>1.49062142753436</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.560616421578802</v>
+        <v>1.270432062253173</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.458051859306606</v>
+        <v>1.268440015112349</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.442917727979099</v>
+        <v>1.242361975251616</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.527563220511864</v>
+        <v>1.467041669456803</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.420181874124596</v>
+        <v>1.548139088390943</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.331234096488848</v>
+        <v>1.361693305312003</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.487002413251915</v>
+        <v>1.508420590297135</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.552630143098091</v>
+        <v>1.51026004209313</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.473078058484278</v>
+        <v>1.568883062514255</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.354397117539232</v>
+        <v>1.503712064082097</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.343098466780168</v>
+        <v>1.547116211332597</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.737206779685402</v>
+        <v>1.469523421152363</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.561978157056473</v>
+        <v>1.471966566026182</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.569806895248748</v>
+        <v>1.402848833166173</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.612620552668494</v>
+        <v>1.501362352067968</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.286073952635879</v>
+        <v>1.667639581591536</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.022160065557909</v>
+        <v>1.401766711930008</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.545981749579688</v>
+        <v>1.341926447842672</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.402857544805444</v>
+        <v>1.664673362888396</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.470284788830244</v>
+        <v>1.383303382259341</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.639326523483233</v>
+        <v>1.690652140171106</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.594066580814011</v>
+        <v>1.431648234534009</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.487680910188838</v>
+        <v>1.334556508418987</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.606923516341197</v>
+        <v>1.510919345080791</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.556014066868639</v>
+        <v>1.34409023755891</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.191845461368083</v>
+        <v>1.567528536967135</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.621052730050737</v>
+        <v>1.651718532947216</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.226576371431685</v>
+        <v>1.327193906530689</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.493857801791487</v>
+        <v>1.477989970389452</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.43397099445929</v>
+        <v>1.465433487510745</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.778176098195385</v>
+        <v>1.374562962562888</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.276956310993449</v>
+        <v>1.50527834450237</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.876895763288406</v>
+        <v>1.638704199030993</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.222026676813155</v>
+        <v>1.351766169048996</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.346439396461513</v>
+        <v>1.605085375561947</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.523403876118889</v>
+        <v>1.612032436379131</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.61784994571943</v>
+        <v>1.389090849401695</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.689817373439619</v>
+        <v>1.737973559150966</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.57905171848522</v>
+        <v>1.479099733272329</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.333020747111162</v>
+        <v>1.328030875941706</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.759485849070015</v>
+        <v>1.562862470666255</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.344334673996687</v>
+        <v>1.29503876035013</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.772008090850357</v>
+        <v>1.610307945381939</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.376484429599147</v>
+        <v>1.352552020366657</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.400664463147878</v>
+        <v>1.512453884128766</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.713661395359567</v>
+        <v>1.588139089698544</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.513588940128968</v>
+        <v>1.278303763759639</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.646569071448946</v>
+        <v>1.746329572523845</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.361666024255072</v>
+        <v>1.507261933019281</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.095863912645229</v>
+        <v>1.697261147838634</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.460031812138272</v>
+        <v>1.340391039725798</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.614781497539865</v>
+        <v>1.572087083612201</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.521442434688622</v>
+        <v>1.364410673528568</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.418028615349548</v>
+        <v>1.203030189736071</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.329557123720128</v>
+        <v>1.360762660203939</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.285400253790406</v>
+        <v>1.282028435282319</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.355490548271446</v>
+        <v>1.216524208155654</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.411688889936646</v>
+        <v>1.821473616676313</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.598147487585389</v>
+        <v>1.259848511807451</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.332950005574429</v>
+        <v>1.715251709608866</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.445437390911161</v>
+        <v>1.402081970506619</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.411579355642127</v>
+        <v>1.30301434577106</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.375675033860334</v>
+        <v>1.796730470702036</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>1.649094326191308</v>
+        <v>1.52951801016189</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.676556434779637</v>
+        <v>1.471900712336813</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.19610133308428</v>
+        <v>1.470126207564469</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.552626851640979</v>
+        <v>1.390677258025363</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.403547580528715</v>
+        <v>1.491699714862238</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.305228558029188</v>
+        <v>1.359655354378865</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.232845269403253</v>
+        <v>1.8768926405574</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.712465585614001</v>
+        <v>1.656288586481607</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.570383540623086</v>
+        <v>1.131866768486955</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.298009283275008</v>
+        <v>1.76958061568745</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.528415403305413</v>
+        <v>1.392850381814811</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.32829371873457</v>
+        <v>1.570046175816822</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>1.562310944067674</v>
+        <v>1.468375439093476</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.753495831889498</v>
+        <v>1.423376886369988</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.53892297046658</v>
+        <v>1.664062728001503</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.705283569581639</v>
+        <v>1.441282119451144</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.669010099829828</v>
+        <v>1.425795016905727</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.426866987421779</v>
+        <v>1.405349445304771</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.432230343661274</v>
+        <v>1.639415349797136</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.516595941070483</v>
+        <v>1.149492289044201</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.592503805164047</v>
+        <v>1.468340368679965</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.850342052937949</v>
+        <v>1.64178599475899</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.519186898128938</v>
+        <v>1.921992329670215</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.523013417863727</v>
+        <v>1.629167092605413</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.650442632519942</v>
+        <v>1.386919659908593</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.171317663172748</v>
+        <v>1.410449347090124</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.406415108402117</v>
+        <v>1.471602903469504</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.499724099093863</v>
+        <v>1.70939835665357</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.348954205825337</v>
+        <v>1.570190141843722</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.424510893419373</v>
+        <v>1.340797983765329</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.425635610262392</v>
+        <v>1.55426869228871</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.409313712212332</v>
+        <v>1.339296141249623</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.357876881060756</v>
+        <v>1.362041687460939</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.466511259958989</v>
+        <v>1.281135025130978</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.57369387471158</v>
+        <v>1.58575583262797</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.414531196226626</v>
+        <v>1.361835090200855</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.414102919980432</v>
+        <v>1.677375112830898</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.168211066688546</v>
+        <v>1.400481393353363</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.454725257874098</v>
+        <v>1.494483667098051</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.711439798571068</v>
+        <v>1.638279446947802</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.632584007211742</v>
+        <v>1.568340408991012</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.60142238608847</v>
+        <v>1.619143812460931</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.367294135106485</v>
+        <v>1.542405322769705</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.373919435522459</v>
+        <v>1.584148407542211</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.727133498669762</v>
+        <v>1.631630371087259</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.500819068727041</v>
+        <v>1.527331143261971</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.596526879232935</v>
+        <v>1.554375275159313</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.765851350462875</v>
+        <v>1.561227281996654</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.298031528878425</v>
+        <v>1.705932432087123</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.427225696142059</v>
+        <v>1.504846757237523</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.532626602667659</v>
+        <v>1.331719194330588</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.524794606687298</v>
+        <v>1.242783885154691</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.629886126410304</v>
+        <v>1.584563200582511</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.618168332822262</v>
+        <v>1.56786795022884</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.450764526684419</v>
+        <v>1.712057521735219</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.588781479376314</v>
+        <v>1.530590779338521</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.555584730757513</v>
+        <v>1.534958465362579</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.593280171894465</v>
+        <v>1.237723235112917</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.217647093274549</v>
+        <v>1.479441227069501</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.472887820380249</v>
+        <v>1.659667950177144</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.56950863146548</v>
+        <v>1.663660748496521</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.584348274955422</v>
+        <v>1.683905942545646</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.730765165807512</v>
+        <v>1.472756184854434</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.371204697594212</v>
+        <v>1.521963951648678</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.464222646876572</v>
+        <v>1.485218776543932</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.509898126982001</v>
+        <v>1.429343084774626</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="F183">
-        <v>1.62050717540665</v>
+        <v>1.726367671352534</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.442114498526943</v>
+        <v>1.706861232429044</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.352825581090549</v>
+        <v>1.669960722650665</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.605941392862577</v>
+        <v>1.346528931825817</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.760352597291168</v>
+        <v>1.610698597688739</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.497094576832876</v>
+        <v>1.528127069375852</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.225795805748453</v>
+        <v>1.418952491101383</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.605808756692735</v>
+        <v>1.521132133533405</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.509172545173343</v>
+        <v>1.278272689790305</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.322036872092594</v>
+        <v>1.617924769805218</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.52535660979466</v>
+        <v>1.685739657574599</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.427521513837829</v>
+        <v>1.683661535668362</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.539945250181926</v>
+        <v>1.437856403875641</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.495163810576697</v>
+        <v>1.587206911150846</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.614639359192377</v>
+        <v>1.539089186126084</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.385087643873249</v>
+        <v>1.27109956328131</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.649212042648947</v>
+        <v>1.474309114219604</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.534010901537384</v>
+        <v>1.579460256968644</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.823166133224819</v>
+        <v>1.592193244312507</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.333127302485643</v>
+        <v>1.511084643078885</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>1.806313666704682</v>
+        <v>1.497818488880843</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.483708551251145</v>
+        <v>1.423259937245891</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.6571084588504</v>
+        <v>1.705473156727094</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.637110499594159</v>
+        <v>1.50500777777384</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.524928400327779</v>
+        <v>1.521465398720867</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.553783154765229</v>
+        <v>1.577889161734325</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.479967354884241</v>
+        <v>1.442694241303407</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.513268550320163</v>
+        <v>1.772348466520828</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.666103324117721</v>
+        <v>1.31212887278155</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.32639460841146</v>
+        <v>1.441273749569262</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.526044842519182</v>
+        <v>1.581071559580227</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.737469194072091</v>
+        <v>1.630372234277246</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.733173901454211</v>
+        <v>1.602114477654005</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.570369913869923</v>
+        <v>1.590323745111828</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.301420501875286</v>
+        <v>1.361851424448124</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.51739109798703</v>
+        <v>1.628067239325452</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.373916403517751</v>
+        <v>1.592520107075541</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.472724363507249</v>
+        <v>1.424704765268027</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.277284962169228</v>
+        <v>1.708622740077272</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.703484769305217</v>
+        <v>1.746194483117965</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.734355614468907</v>
+        <v>1.3807985671334</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.276887497129586</v>
+        <v>1.503535889405354</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.488057475356833</v>
+        <v>1.37839359004412</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.790663662072975</v>
+        <v>1.305964108178618</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.303897364318569</v>
+        <v>1.21337653873446</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.503681236567725</v>
+        <v>1.377471487494908</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.539390064461597</v>
+        <v>1.56898705025694</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.526845590504144</v>
+        <v>1.314918777177196</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.744642300797898</v>
+        <v>1.312049923825674</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.41080376941456</v>
+        <v>1.523994048090473</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.543241741342679</v>
+        <v>1.347437793306581</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.466732367321843</v>
+        <v>1.588298204410173</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.284106287156281</v>
+        <v>1.586841312777369</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.605377114668162</v>
+        <v>1.507957939117946</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.260797937174601</v>
+        <v>1.722894446961994</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.488807940939799</v>
+        <v>1.71638108477857</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.332163809334862</v>
+        <v>1.512153585401149</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.537771550647805</v>
+        <v>1.326874863666359</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.503054363216312</v>
+        <v>1.813057747827091</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.498861463873028</v>
+        <v>1.38175031879875</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.505521311522006</v>
+        <v>1.614995704800576</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.525732655758759</v>
+        <v>1.547409087391683</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.248152930323948</v>
+        <v>1.587618847616371</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.356863358425978</v>
+        <v>1.649788910264214</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.514305131072433</v>
+        <v>1.487958493331629</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.664716209729914</v>
+        <v>1.465929645136477</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.351150015507176</v>
+        <v>1.76140069194146</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.649803015699711</v>
+        <v>1.406661217208753</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.552350296785369</v>
+        <v>1.038208623769119</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.489821491067864</v>
+        <v>1.347656647078382</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.555363912138311</v>
+        <v>1.433826520449659</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.214097049546804</v>
+        <v>1.667421488442193</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.442531821281715</v>
+        <v>1.400842927461264</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.401055063428183</v>
+        <v>1.348554831602432</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.597761384981587</v>
+        <v>1.568987299972529</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/21_localizer.xlsx
+++ b/sequences/21_localizer.xlsx
@@ -31,400 +31,400 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
   </si>
   <si>
     <t>house/house039.jpg</t>
   </si>
   <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
+    <t>face/face037.jpg</t>
   </si>
   <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
     <t>face/face046.jpg</t>
   </si>
   <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
     <t>dog/dog041.jpg</t>
   </si>
   <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
   </si>
   <si>
     <t>flower/flower062.jpg</t>
   </si>
   <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
     <t>house/house050.jpg</t>
   </si>
   <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
     <t>face/face061.jpg</t>
   </si>
   <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
+    <t>flower/flower050.jpg</t>
   </si>
   <si>
     <t>face/face053.jpg</t>
   </si>
   <si>
-    <t>house/house060.jpg</t>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
   </si>
   <si>
     <t>face/face054.jpg</t>
   </si>
   <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
   </si>
   <si>
     <t>house/house062.jpg</t>
   </si>
   <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
   </si>
   <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
   </si>
   <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
     <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
   </si>
   <si>
     <t>flower/flower068.jpg</t>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.312175946298449</v>
+        <v>1.474590804363431</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.735807982264614</v>
+        <v>1.38691043611448</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.629495632296336</v>
+        <v>1.402099912258352</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.556069582014488</v>
+        <v>1.622935439395727</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.674814675369821</v>
+        <v>1.748865462321285</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.424567840385152</v>
+        <v>1.271115099629738</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.439471408101655</v>
+        <v>1.546228521047379</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.582117385474366</v>
+        <v>1.2436489851991</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.622268650476459</v>
+        <v>1.503141419901454</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.146988251294071</v>
+        <v>1.420491990489552</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.430734674964929</v>
+        <v>1.502147113949686</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.48766505481537</v>
+        <v>1.39644155177426</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.540017186281945</v>
+        <v>1.393624668825546</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.690783548977174</v>
+        <v>1.276694207323383</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.263831998209963</v>
+        <v>1.3845926072863</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.394844986887963</v>
+        <v>1.356283103855299</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.533821259912973</v>
+        <v>1.421712402976036</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.621855788027853</v>
+        <v>1.504923451220335</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.622252823131828</v>
+        <v>1.61312924165818</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.495240941404034</v>
+        <v>1.407424231474558</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.255778355583418</v>
+        <v>1.606969808306138</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.438051254248825</v>
+        <v>1.312521486467606</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.744868669135193</v>
+        <v>1.635317733990703</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.856514818046104</v>
+        <v>1.632195909558657</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.481444089938264</v>
+        <v>1.595239660029583</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.608226681962629</v>
+        <v>1.523593138925043</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.812396175969957</v>
+        <v>1.597204115195477</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.628111271709676</v>
+        <v>1.381376727899479</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.526658453983322</v>
+        <v>1.322402031074934</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.673615545211024</v>
+        <v>1.612274583701494</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.399974655630375</v>
+        <v>1.31692294910894</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.477444822719217</v>
+        <v>1.5595113531997</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.4548481422182</v>
+        <v>1.56396754783705</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.567516654513155</v>
+        <v>1.531954493280944</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.614202519824158</v>
+        <v>1.263374040537758</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.612773310248198</v>
+        <v>1.675886957648875</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.739983225629441</v>
+        <v>1.437608146929911</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.64720610226314</v>
+        <v>1.527301474630561</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.423241982385816</v>
+        <v>1.687851476857976</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.540213319020882</v>
+        <v>1.455975313393678</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.705273719530706</v>
+        <v>1.579110188896999</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.466313141809155</v>
+        <v>1.647142341405559</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.677592163315221</v>
+        <v>1.673329832317619</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.193777289061562</v>
+        <v>1.412115375198081</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.435364773197797</v>
+        <v>1.702285663511002</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.529870858058361</v>
+        <v>1.569218946623846</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.479485719977889</v>
+        <v>1.612142478095357</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.377122475804254</v>
+        <v>1.413477288484246</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.566462376750251</v>
+        <v>1.546519763758557</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.25858963500735</v>
+        <v>1.554751292880158</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.395784261024106</v>
+        <v>1.444094021613066</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.49062142753436</v>
+        <v>1.441469342490248</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.270432062253173</v>
+        <v>1.569245708072655</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.268440015112349</v>
+        <v>1.622513640955708</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.242361975251616</v>
+        <v>1.266362781177846</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.467041669456803</v>
+        <v>1.494267702734829</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.548139088390943</v>
+        <v>1.618904320043363</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.361693305312003</v>
+        <v>1.488569877879101</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.508420590297135</v>
+        <v>1.531816001858749</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.51026004209313</v>
+        <v>1.519171079889567</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.568883062514255</v>
+        <v>1.374090622626549</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.503712064082097</v>
+        <v>1.538861419926417</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.547116211332597</v>
+        <v>1.615736873302442</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.469523421152363</v>
+        <v>1.446992437414265</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.471966566026182</v>
+        <v>1.450495984015946</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.402848833166173</v>
+        <v>1.472212159308267</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.501362352067968</v>
+        <v>1.526911124944941</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.667639581591536</v>
+        <v>1.730352802317482</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.401766711930008</v>
+        <v>1.55817898073913</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.341926447842672</v>
+        <v>1.421114672897627</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.664673362888396</v>
+        <v>1.432037536293805</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.383303382259341</v>
+        <v>1.484814837646568</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.690652140171106</v>
+        <v>1.637898756875705</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.431648234534009</v>
+        <v>1.601244431094644</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.334556508418987</v>
+        <v>1.622508217493427</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.510919345080791</v>
+        <v>1.746585949994216</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.34409023755891</v>
+        <v>1.708077223585401</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.567528536967135</v>
+        <v>1.459013695203822</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.651718532947216</v>
+        <v>1.413178187204731</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.327193906530689</v>
+        <v>1.534714297319266</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.477989970389452</v>
+        <v>1.339407004115328</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.465433487510745</v>
+        <v>1.1880376062677</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.374562962562888</v>
+        <v>1.528009502453844</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.50527834450237</v>
+        <v>1.434084953186344</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.638704199030993</v>
+        <v>1.232463409720973</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.351766169048996</v>
+        <v>1.410303103348946</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.605085375561947</v>
+        <v>1.061815914575062</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.612032436379131</v>
+        <v>1.564714058039898</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.389090849401695</v>
+        <v>1.133575565385013</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.737973559150966</v>
+        <v>1.371144945413816</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.479099733272329</v>
+        <v>1.451173272316116</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.328030875941706</v>
+        <v>1.414749110074909</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.562862470666255</v>
+        <v>1.675499550441286</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.29503876035013</v>
+        <v>1.506185906370789</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.610307945381939</v>
+        <v>1.395778835562546</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.352552020366657</v>
+        <v>1.563587297464646</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.512453884128766</v>
+        <v>1.470726216812237</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.588139089698544</v>
+        <v>1.479926150219843</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.278303763759639</v>
+        <v>1.547279304805234</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.746329572523845</v>
+        <v>1.641155929308374</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.507261933019281</v>
+        <v>1.267171329568486</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.697261147838634</v>
+        <v>1.626376114770437</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.340391039725798</v>
+        <v>1.816443655130819</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.572087083612201</v>
+        <v>1.281042649241745</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.364410673528568</v>
+        <v>1.602590361425343</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.203030189736071</v>
+        <v>1.381119021917274</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>1.360762660203939</v>
+        <v>1.572540421738349</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.282028435282319</v>
+        <v>1.563895504493506</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.216524208155654</v>
+        <v>1.417419913098761</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.821473616676313</v>
+        <v>1.605213292676103</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.259848511807451</v>
+        <v>1.482290613072968</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.715251709608866</v>
+        <v>1.64033070800952</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.402081970506619</v>
+        <v>1.374654253451595</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.30301434577106</v>
+        <v>1.306224048063344</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.796730470702036</v>
+        <v>1.590430118769823</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>1.52951801016189</v>
+        <v>1.454755765299485</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.471900712336813</v>
+        <v>1.684844866495623</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.470126207564469</v>
+        <v>1.25907135644128</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.390677258025363</v>
+        <v>1.453838172582062</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>1.491699714862238</v>
+        <v>1.606654596515381</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.359655354378865</v>
+        <v>1.555243860183477</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.8768926405574</v>
+        <v>1.426876607166623</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.656288586481607</v>
+        <v>1.463527979076883</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.131866768486955</v>
+        <v>1.664795411205794</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.76958061568745</v>
+        <v>1.855994642104671</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.392850381814811</v>
+        <v>1.512340608765975</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.570046175816822</v>
+        <v>1.634822269964506</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.468375439093476</v>
+        <v>1.398701493305218</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.423376886369988</v>
+        <v>1.680586371638336</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.664062728001503</v>
+        <v>1.614445128861156</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.441282119451144</v>
+        <v>1.517088850599554</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.425795016905727</v>
+        <v>1.494005929720217</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.405349445304771</v>
+        <v>1.571079733090151</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.639415349797136</v>
+        <v>1.688010251412888</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.149492289044201</v>
+        <v>1.50441238344086</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.468340368679965</v>
+        <v>1.420600435128025</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.64178599475899</v>
+        <v>1.52894466520971</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.921992329670215</v>
+        <v>1.338081796582063</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.629167092605413</v>
+        <v>1.453316697079118</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.386919659908593</v>
+        <v>1.377234486286785</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.410449347090124</v>
+        <v>1.446156735104713</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.471602903469504</v>
+        <v>1.594439857425417</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.70939835665357</v>
+        <v>1.647971973194196</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.570190141843722</v>
+        <v>1.75631143973805</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.340797983765329</v>
+        <v>1.474639232940705</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.55426869228871</v>
+        <v>1.668226195752238</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.339296141249623</v>
+        <v>1.546030079870994</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.362041687460939</v>
+        <v>1.458207152119102</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.281135025130978</v>
+        <v>1.511815333308794</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.58575583262797</v>
+        <v>1.345305804356738</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.361835090200855</v>
+        <v>1.593558799229834</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.677375112830898</v>
+        <v>1.394389507978718</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.400481393353363</v>
+        <v>1.189290663683688</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.494483667098051</v>
+        <v>1.638317674458966</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.638279446947802</v>
+        <v>1.768254550598889</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.568340408991012</v>
+        <v>1.187181772578864</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.619143812460931</v>
+        <v>1.24509003893284</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.542405322769705</v>
+        <v>1.320463332068587</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.584148407542211</v>
+        <v>1.621955851746544</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.631630371087259</v>
+        <v>1.511307259502872</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.527331143261971</v>
+        <v>1.445666121219138</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.554375275159313</v>
+        <v>1.427216551555121</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.561227281996654</v>
+        <v>1.564601015341917</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.705932432087123</v>
+        <v>1.522935502419287</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.504846757237523</v>
+        <v>1.574715539970977</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.331719194330588</v>
+        <v>1.317372639851087</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.242783885154691</v>
+        <v>1.658904551358993</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.584563200582511</v>
+        <v>1.434209070475237</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.56786795022884</v>
+        <v>1.503472020418944</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.712057521735219</v>
+        <v>1.574581164936664</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.530590779338521</v>
+        <v>1.481234701802731</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.534958465362579</v>
+        <v>1.290296099172845</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.237723235112917</v>
+        <v>1.574510532371698</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.479441227069501</v>
+        <v>1.509643422622012</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.659667950177144</v>
+        <v>1.745808961256262</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.663660748496521</v>
+        <v>1.405211165098467</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.683905942545646</v>
+        <v>1.477703318177499</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>1.472756184854434</v>
+        <v>1.230590568540957</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.521963951648678</v>
+        <v>1.589830659703373</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.485218776543932</v>
+        <v>1.547163788092032</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.429343084774626</v>
+        <v>1.474912143319725</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.726367671352534</v>
+        <v>1.501639486376971</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.706861232429044</v>
+        <v>1.750267189615761</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.669960722650665</v>
+        <v>1.520719690154434</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.346528931825817</v>
+        <v>1.475289298752059</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.610698597688739</v>
+        <v>1.384200351865896</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.528127069375852</v>
+        <v>1.62879870958115</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.418952491101383</v>
+        <v>1.566192390389896</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.521132133533405</v>
+        <v>1.652448377035613</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.278272689790305</v>
+        <v>1.447997015909848</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.617924769805218</v>
+        <v>1.492026149981811</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.685739657574599</v>
+        <v>1.426790829127112</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.683661535668362</v>
+        <v>1.885689186276781</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.437856403875641</v>
+        <v>1.564328831352837</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.587206911150846</v>
+        <v>1.569543584706776</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.539089186126084</v>
+        <v>1.506726913875267</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.27109956328131</v>
+        <v>1.466772378892969</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.474309114219604</v>
+        <v>1.655442748360272</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.579460256968644</v>
+        <v>1.406807492328353</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.592193244312507</v>
+        <v>1.370292554906668</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.511084643078885</v>
+        <v>1.450888773849843</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.497818488880843</v>
+        <v>1.346678571567246</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.423259937245891</v>
+        <v>1.474844916890843</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.705473156727094</v>
+        <v>1.333248565527044</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.50500777777384</v>
+        <v>1.606333368959018</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.521465398720867</v>
+        <v>1.49997120925403</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.577889161734325</v>
+        <v>1.411432869968789</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.442694241303407</v>
+        <v>1.204373799930686</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.772348466520828</v>
+        <v>1.495529309983961</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.31212887278155</v>
+        <v>1.330569146598415</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.441273749569262</v>
+        <v>1.526274700569383</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.581071559580227</v>
+        <v>1.557957483888312</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.630372234277246</v>
+        <v>1.891545900293641</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.602114477654005</v>
+        <v>1.685090733702397</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.590323745111828</v>
+        <v>1.369108392162567</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.361851424448124</v>
+        <v>1.838354799813554</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.628067239325452</v>
+        <v>1.549553174300379</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.592520107075541</v>
+        <v>1.561969524672293</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.424704765268027</v>
+        <v>1.442945702456817</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.708622740077272</v>
+        <v>1.419194973876917</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.746194483117965</v>
+        <v>1.532023049541713</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.3807985671334</v>
+        <v>1.483534328161011</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.503535889405354</v>
+        <v>1.470692938574667</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.37839359004412</v>
+        <v>1.177902367782347</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.305964108178618</v>
+        <v>1.445567088710849</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.21337653873446</v>
+        <v>1.676849346960386</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.377471487494908</v>
+        <v>1.501941908778872</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.56898705025694</v>
+        <v>1.228888296474066</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.314918777177196</v>
+        <v>1.519597328074237</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.312049923825674</v>
+        <v>1.271520471454509</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.523994048090473</v>
+        <v>1.435844796452986</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.347437793306581</v>
+        <v>1.581761159181866</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.588298204410173</v>
+        <v>1.497630891399321</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.586841312777369</v>
+        <v>1.217292483330058</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.507957939117946</v>
+        <v>1.557901354187818</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.722894446961994</v>
+        <v>1.613263391946727</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.71638108477857</v>
+        <v>1.721679422107416</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.512153585401149</v>
+        <v>1.66288678472527</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.326874863666359</v>
+        <v>1.457358511262684</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.813057747827091</v>
+        <v>1.469254414020825</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.38175031879875</v>
+        <v>1.650808454549473</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>1.614995704800576</v>
+        <v>1.252243732110334</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.547409087391683</v>
+        <v>1.351666773415754</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.587618847616371</v>
+        <v>1.727906861763348</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.649788910264214</v>
+        <v>1.534166610352397</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.487958493331629</v>
+        <v>1.689365459578726</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.465929645136477</v>
+        <v>1.493534607836298</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.76140069194146</v>
+        <v>1.237897875861506</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.406661217208753</v>
+        <v>1.581712060960233</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.038208623769119</v>
+        <v>1.693319422996429</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.347656647078382</v>
+        <v>1.861650986842191</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.433826520449659</v>
+        <v>1.631330910538234</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.667421488442193</v>
+        <v>1.485385022818275</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.400842927461264</v>
+        <v>1.509645778149892</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.348554831602432</v>
+        <v>1.29679805056917</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.568987299972529</v>
+        <v>1.149064656676346</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/21_localizer.xlsx
+++ b/sequences/21_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
   </si>
   <si>
     <t>face/face045.jpg</t>
   </si>
   <si>
-    <t>dog/dog042.jpg</t>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
   </si>
   <si>
     <t>dog/dog043.jpg</t>
   </si>
   <si>
-    <t>dog/dog046.jpg</t>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
   </si>
   <si>
     <t>flower/flower039.jpg</t>
   </si>
   <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
   </si>
   <si>
     <t>flower/flower042.jpg</t>
   </si>
   <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
     <t>house/house059.jpg</t>
   </si>
   <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
     <t>dog/dog061.jpg</t>
   </si>
   <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
     <t>house/house054.jpg</t>
   </si>
   <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
   </si>
   <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
     <t>face/face065.jpg</t>
   </si>
   <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
   </si>
   <si>
     <t>flower/flower073.jpg</t>
   </si>
   <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
     <t>face/face070.jpg</t>
   </si>
   <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
     <t>dog/dog071.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
   </si>
   <si>
     <t>face/face089.jpg</t>
   </si>
   <si>
-    <t>face/face090.jpg</t>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
   </si>
   <si>
     <t>flower/flower094.jpg</t>
   </si>
   <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
+    <t>dog/dog084.jpg</t>
   </si>
   <si>
     <t>dog/dog081.jpg</t>
   </si>
   <si>
-    <t>flower/flower080.jpg</t>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
   </si>
   <si>
     <t>flower/flower082.jpg</t>
   </si>
   <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
     <t>flower/flower089.jpg</t>
   </si>
   <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
   </si>
   <si>
     <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.474590804363431</v>
+        <v>1.540070786395604</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.38691043611448</v>
+        <v>1.519297863961178</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.402099912258352</v>
+        <v>1.415096754762402</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.622935439395727</v>
+        <v>1.551675471766225</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.748865462321285</v>
+        <v>1.245748327012205</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.271115099629738</v>
+        <v>1.725833159346213</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.546228521047379</v>
+        <v>1.44581946453064</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.2436489851991</v>
+        <v>1.45433121309161</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.503141419901454</v>
+        <v>1.299889319203205</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.420491990489552</v>
+        <v>1.536101040835288</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.502147113949686</v>
+        <v>1.682971363750998</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.39644155177426</v>
+        <v>1.438689104933234</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.393624668825546</v>
+        <v>1.540221513851535</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.276694207323383</v>
+        <v>1.466568042605257</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.3845926072863</v>
+        <v>1.514689632247298</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.356283103855299</v>
+        <v>1.530645088684385</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.421712402976036</v>
+        <v>1.341972145151987</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.504923451220335</v>
+        <v>1.337398338929453</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.61312924165818</v>
+        <v>1.185172732242678</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.407424231474558</v>
+        <v>1.705749916643903</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.606969808306138</v>
+        <v>1.506404077971476</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.312521486467606</v>
+        <v>1.287665698629661</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.635317733990703</v>
+        <v>1.450348865437605</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.632195909558657</v>
+        <v>1.63937311960925</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.595239660029583</v>
+        <v>1.336617970745963</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.523593138925043</v>
+        <v>1.37942005684521</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.597204115195477</v>
+        <v>1.628796690894071</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.381376727899479</v>
+        <v>1.828980820068148</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.322402031074934</v>
+        <v>1.522226313031246</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.612274583701494</v>
+        <v>1.139914823506772</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.31692294910894</v>
+        <v>1.541081371418713</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.5595113531997</v>
+        <v>1.47088391664515</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.56396754783705</v>
+        <v>1.728576392042921</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.531954493280944</v>
+        <v>1.672550921748724</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.263374040537758</v>
+        <v>1.473345904065582</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.675886957648875</v>
+        <v>1.609055357527643</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.437608146929911</v>
+        <v>1.71150718384458</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.527301474630561</v>
+        <v>1.289816655841074</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.687851476857976</v>
+        <v>1.575642532870693</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.455975313393678</v>
+        <v>1.258487936297762</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.579110188896999</v>
+        <v>1.471099252054721</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.647142341405559</v>
+        <v>1.425801193556854</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.673329832317619</v>
+        <v>1.339990237770653</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.412115375198081</v>
+        <v>1.826483544108614</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.702285663511002</v>
+        <v>1.458727062256672</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.569218946623846</v>
+        <v>1.33445225785827</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.612142478095357</v>
+        <v>1.199681961945155</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.413477288484246</v>
+        <v>1.679487708708992</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.546519763758557</v>
+        <v>1.512713325231787</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.554751292880158</v>
+        <v>1.368350317956804</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.444094021613066</v>
+        <v>1.487860934710561</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.441469342490248</v>
+        <v>1.500794473624012</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.569245708072655</v>
+        <v>1.389208577377446</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.622513640955708</v>
+        <v>1.686877753278237</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.266362781177846</v>
+        <v>1.439949439945818</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.494267702734829</v>
+        <v>1.667019919716201</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.618904320043363</v>
+        <v>1.50613765501812</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.488569877879101</v>
+        <v>1.363983176263871</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.531816001858749</v>
+        <v>1.592110082355347</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.519171079889567</v>
+        <v>1.664689874989346</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.374090622626549</v>
+        <v>1.42148043887547</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.538861419926417</v>
+        <v>1.633500035476324</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.615736873302442</v>
+        <v>1.488984391148983</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.446992437414265</v>
+        <v>1.397745380034428</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.450495984015946</v>
+        <v>1.510783682993097</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.472212159308267</v>
+        <v>1.554458966899742</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.526911124944941</v>
+        <v>1.617016510420161</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.730352802317482</v>
+        <v>1.45726589061665</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.55817898073913</v>
+        <v>1.728461373675367</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.421114672897627</v>
+        <v>1.625602746156424</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.432037536293805</v>
+        <v>1.349673887830089</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.484814837646568</v>
+        <v>1.413866522585239</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.637898756875705</v>
+        <v>1.442404420564528</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.601244431094644</v>
+        <v>1.516330647735864</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.622508217493427</v>
+        <v>1.383329863439241</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.746585949994216</v>
+        <v>1.272066890193809</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.708077223585401</v>
+        <v>1.769089356149847</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.459013695203822</v>
+        <v>1.317286617792516</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.413178187204731</v>
+        <v>1.600732967579742</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.534714297319266</v>
+        <v>1.272641166998803</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.339407004115328</v>
+        <v>1.588173499368456</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.1880376062677</v>
+        <v>1.696743272493898</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.528009502453844</v>
+        <v>1.348103390949343</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.434084953186344</v>
+        <v>1.35755448405117</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.232463409720973</v>
+        <v>1.495232249092401</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.410303103348946</v>
+        <v>1.575351777617104</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.061815914575062</v>
+        <v>1.7012766530614</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.564714058039898</v>
+        <v>1.403032476352608</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.133575565385013</v>
+        <v>1.274117978648535</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.371144945413816</v>
+        <v>1.514152990794746</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.451173272316116</v>
+        <v>1.617614262629375</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.414749110074909</v>
+        <v>1.251073737455107</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.675499550441286</v>
+        <v>1.286382565998539</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.506185906370789</v>
+        <v>1.536271790038241</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.395778835562546</v>
+        <v>1.337090600206013</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.563587297464646</v>
+        <v>1.667883201219205</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.470726216812237</v>
+        <v>1.599182524802436</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.479926150219843</v>
+        <v>1.554472369462326</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.547279304805234</v>
+        <v>1.147550877320962</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.641155929308374</v>
+        <v>1.629895239533829</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.267171329568486</v>
+        <v>1.228522051867075</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.626376114770437</v>
+        <v>1.449613007913417</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.816443655130819</v>
+        <v>1.563796675252597</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.281042649241745</v>
+        <v>1.528459595307752</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.602590361425343</v>
+        <v>1.436320117382005</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.381119021917274</v>
+        <v>1.517339550059993</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.572540421738349</v>
+        <v>1.306899742035943</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.563895504493506</v>
+        <v>1.531919747641466</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.417419913098761</v>
+        <v>1.771746251635121</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.605213292676103</v>
+        <v>1.632558875251079</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.482290613072968</v>
+        <v>1.669684266642671</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>1.64033070800952</v>
+        <v>1.392491416115868</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.374654253451595</v>
+        <v>1.967470740247412</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.306224048063344</v>
+        <v>1.569911392606597</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.590430118769823</v>
+        <v>1.580243237036508</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.454755765299485</v>
+        <v>1.446993457129221</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.684844866495623</v>
+        <v>1.401045794556671</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.25907135644128</v>
+        <v>1.48845083415404</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.453838172582062</v>
+        <v>1.556639439595146</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.606654596515381</v>
+        <v>1.727297740561871</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.555243860183477</v>
+        <v>1.759506782189234</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.426876607166623</v>
+        <v>1.044122498834445</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.463527979076883</v>
+        <v>1.472555261973395</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.664795411205794</v>
+        <v>1.475056772900596</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.855994642104671</v>
+        <v>1.389624105937239</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.512340608765975</v>
+        <v>1.456806580817737</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>1.634822269964506</v>
+        <v>1.641323387980933</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.398701493305218</v>
+        <v>1.715424384437559</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.680586371638336</v>
+        <v>1.299700393531113</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.614445128861156</v>
+        <v>1.359450348437557</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.517088850599554</v>
+        <v>1.500326559852729</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.494005929720217</v>
+        <v>1.474564568544968</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.571079733090151</v>
+        <v>1.734136902539852</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.688010251412888</v>
+        <v>1.516336893308603</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.50441238344086</v>
+        <v>1.739240607572645</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.420600435128025</v>
+        <v>1.637620084213956</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.52894466520971</v>
+        <v>1.456610431768251</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.338081796582063</v>
+        <v>1.47084878928682</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.453316697079118</v>
+        <v>1.412910855760564</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.377234486286785</v>
+        <v>1.469958626938438</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.446156735104713</v>
+        <v>1.693075563838703</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.594439857425417</v>
+        <v>1.436072949441248</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.647971973194196</v>
+        <v>1.446118521761303</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1.75631143973805</v>
+        <v>1.351025325864154</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.474639232940705</v>
+        <v>1.49952272966676</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.668226195752238</v>
+        <v>1.620689501280446</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.546030079870994</v>
+        <v>1.849629659750588</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.458207152119102</v>
+        <v>1.468304233657826</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.511815333308794</v>
+        <v>1.517289067774864</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.345305804356738</v>
+        <v>1.215427931469574</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.593558799229834</v>
+        <v>1.613066587240278</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.394389507978718</v>
+        <v>1.394404963050654</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.189290663683688</v>
+        <v>1.4393915055798</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.638317674458966</v>
+        <v>1.343449608276919</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.768254550598889</v>
+        <v>1.775923126067589</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.187181772578864</v>
+        <v>1.47189164485837</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.24509003893284</v>
+        <v>1.5907904998765</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.320463332068587</v>
+        <v>1.406568267579549</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.621955851746544</v>
+        <v>1.460812326130481</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.511307259502872</v>
+        <v>1.537315598067952</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.445666121219138</v>
+        <v>1.56718123656337</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.427216551555121</v>
+        <v>1.663922057026051</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.564601015341917</v>
+        <v>1.474396504310366</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.522935502419287</v>
+        <v>1.975450714454068</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.574715539970977</v>
+        <v>1.668622869981172</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.317372639851087</v>
+        <v>1.463022717591884</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.658904551358993</v>
+        <v>1.687028323663383</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.434209070475237</v>
+        <v>1.494756405888808</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.503472020418944</v>
+        <v>1.395102756188126</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.574581164936664</v>
+        <v>1.219167754245025</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.481234701802731</v>
+        <v>1.312514357182901</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.290296099172845</v>
+        <v>1.656827241382251</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.574510532371698</v>
+        <v>1.529097592413952</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.509643422622012</v>
+        <v>1.355027463846012</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.745808961256262</v>
+        <v>1.451789875515447</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.405211165098467</v>
+        <v>1.267313089324579</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.477703318177499</v>
+        <v>1.405172960996272</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>1.230590568540957</v>
+        <v>1.5651390943667</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.589830659703373</v>
+        <v>1.365682481078796</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.547163788092032</v>
+        <v>1.938036711983293</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.474912143319725</v>
+        <v>1.624051779350225</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.501639486376971</v>
+        <v>1.486845649650566</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.750267189615761</v>
+        <v>1.498216449770359</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.520719690154434</v>
+        <v>1.44704249461702</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.475289298752059</v>
+        <v>1.500900783487532</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.384200351865896</v>
+        <v>1.381774004639767</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.62879870958115</v>
+        <v>1.561671053863239</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.566192390389896</v>
+        <v>1.464529294863796</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.652448377035613</v>
+        <v>1.640766859268001</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.447997015909848</v>
+        <v>1.594384235859292</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.492026149981811</v>
+        <v>1.457493139527123</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.426790829127112</v>
+        <v>1.574828042659573</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.885689186276781</v>
+        <v>1.562498202546696</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.564328831352837</v>
+        <v>1.207058974613321</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.569543584706776</v>
+        <v>1.370055639707143</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.506726913875267</v>
+        <v>1.195883875086994</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.466772378892969</v>
+        <v>1.52402234347914</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.655442748360272</v>
+        <v>1.533438342563089</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.406807492328353</v>
+        <v>1.517340026623249</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.370292554906668</v>
+        <v>1.402315497949443</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.450888773849843</v>
+        <v>1.483385110608171</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.346678571567246</v>
+        <v>1.688075763411742</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.474844916890843</v>
+        <v>1.701725146655142</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.333248565527044</v>
+        <v>1.641121247666796</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.606333368959018</v>
+        <v>1.485055038695783</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.49997120925403</v>
+        <v>1.476995424677183</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.411432869968789</v>
+        <v>1.55487155439864</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.204373799930686</v>
+        <v>1.175811112173327</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.495529309983961</v>
+        <v>1.570935303943282</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.330569146598415</v>
+        <v>1.609385430720295</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.526274700569383</v>
+        <v>1.478903256671195</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.557957483888312</v>
+        <v>1.610307948899848</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.891545900293641</v>
+        <v>1.60253754095829</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.685090733702397</v>
+        <v>1.290185686000566</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.369108392162567</v>
+        <v>1.487760243706497</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.838354799813554</v>
+        <v>1.48768192815454</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.549553174300379</v>
+        <v>1.860354064630742</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.561969524672293</v>
+        <v>1.612021786577361</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.442945702456817</v>
+        <v>1.606180599123839</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.419194973876917</v>
+        <v>1.466761543531327</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.532023049541713</v>
+        <v>1.371466655445656</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.483534328161011</v>
+        <v>1.631951561473789</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.470692938574667</v>
+        <v>1.604195058121224</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.177902367782347</v>
+        <v>1.54014037349854</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.445567088710849</v>
+        <v>1.563903069357225</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.676849346960386</v>
+        <v>1.663800885626969</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.501941908778872</v>
+        <v>1.6513206069638</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.228888296474066</v>
+        <v>1.443866396245495</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.519597328074237</v>
+        <v>1.399503201332628</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.271520471454509</v>
+        <v>1.251337470036477</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.435844796452986</v>
+        <v>1.306676769708535</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>1.581761159181866</v>
+        <v>1.425707642446399</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.497630891399321</v>
+        <v>1.726668696101837</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.217292483330058</v>
+        <v>1.587103254712596</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.557901354187818</v>
+        <v>1.523741342860887</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.613263391946727</v>
+        <v>1.300645109115606</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.721679422107416</v>
+        <v>1.440720526951365</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.66288678472527</v>
+        <v>1.379483067329207</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.457358511262684</v>
+        <v>1.724572562180564</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.469254414020825</v>
+        <v>1.648351516750593</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.650808454549473</v>
+        <v>1.329660444282875</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.252243732110334</v>
+        <v>1.469307051778173</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.351666773415754</v>
+        <v>1.676908234955091</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.727906861763348</v>
+        <v>1.638121802592488</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.534166610352397</v>
+        <v>1.534084328368219</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.689365459578726</v>
+        <v>1.316656296261609</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.493534607836298</v>
+        <v>1.32040408529491</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.237897875861506</v>
+        <v>1.58314030196491</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.581712060960233</v>
+        <v>1.354216777608182</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.693319422996429</v>
+        <v>1.497317469794246</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.861650986842191</v>
+        <v>1.451201864477131</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.631330910538234</v>
+        <v>1.499228473375225</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.485385022818275</v>
+        <v>1.322155221876394</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.509645778149892</v>
+        <v>1.724096374468395</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.29679805056917</v>
+        <v>1.552565218201248</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.149064656676346</v>
+        <v>1.485035348228231</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/21_localizer.xlsx
+++ b/sequences/21_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>dog</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
   </si>
   <si>
     <t>dog/dog044.jpg</t>
   </si>
   <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
     <t>flower/flower049.jpg</t>
   </si>
   <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
   </si>
   <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
   </si>
   <si>
     <t>flower/flower072.jpg</t>
   </si>
   <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
     <t>dog/dog068.jpg</t>
   </si>
   <si>
-    <t>face/face079.jpg</t>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
   </si>
   <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
     <t>dog/dog065.jpg</t>
   </si>
   <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
   </si>
   <si>
     <t>house/house077.jpg</t>
   </si>
   <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
     <t>dog/dog066.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
     <t>dog/dog088.jpg</t>
   </si>
   <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
     <t>house/house088.jpg</t>
   </si>
   <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
     <t>flower/flower092.jpg</t>
   </si>
   <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
     <t>dog/dog089.jpg</t>
   </si>
   <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
     <t>flower/flower086.jpg</t>
   </si>
   <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
     <t>house/house086.jpg</t>
   </si>
   <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
     <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1.540070786395604</v>
+        <v>1.538549121251708</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.519297863961178</v>
+        <v>1.651765788404427</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.415096754762402</v>
+        <v>1.496281837597143</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.551675471766225</v>
+        <v>1.374915640697043</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.245748327012205</v>
+        <v>1.7064551422554</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.725833159346213</v>
+        <v>1.529334270525098</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.44581946453064</v>
+        <v>1.271036164913916</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.45433121309161</v>
+        <v>1.566420651209877</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.299889319203205</v>
+        <v>1.613041573762374</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.536101040835288</v>
+        <v>1.498202418820893</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.682971363750998</v>
+        <v>1.720168732295844</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.438689104933234</v>
+        <v>1.331627862437612</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.540221513851535</v>
+        <v>1.229227256293547</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.466568042605257</v>
+        <v>1.797742417693611</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.514689632247298</v>
+        <v>1.353107359244698</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.530645088684385</v>
+        <v>1.411924931074937</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.341972145151987</v>
+        <v>1.547035170178606</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.337398338929453</v>
+        <v>1.609631457962466</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.185172732242678</v>
+        <v>1.519348630746729</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.705749916643903</v>
+        <v>1.253655192714998</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.506404077971476</v>
+        <v>1.7282339286179</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.287665698629661</v>
+        <v>1.666440939425483</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.450348865437605</v>
+        <v>1.516486059075818</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.63937311960925</v>
+        <v>1.40979262686587</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.336617970745963</v>
+        <v>1.580332567041424</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.37942005684521</v>
+        <v>1.401028073886157</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.628796690894071</v>
+        <v>1.620542309497488</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.828980820068148</v>
+        <v>1.480865396091292</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.522226313031246</v>
+        <v>1.625954428691321</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.139914823506772</v>
+        <v>1.495269967742184</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.541081371418713</v>
+        <v>1.673550283571259</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.47088391664515</v>
+        <v>1.462679100579594</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.728576392042921</v>
+        <v>1.439598132043465</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.672550921748724</v>
+        <v>1.441454890071767</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.473345904065582</v>
+        <v>1.503384766465256</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.609055357527643</v>
+        <v>1.409042351152727</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.71150718384458</v>
+        <v>1.682568883201715</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.289816655841074</v>
+        <v>1.451815870432786</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.575642532870693</v>
+        <v>1.281543389700529</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.258487936297762</v>
+        <v>1.429242084441029</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.471099252054721</v>
+        <v>1.497988151056128</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.425801193556854</v>
+        <v>1.420471044505036</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.339990237770653</v>
+        <v>1.784453141593628</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.826483544108614</v>
+        <v>1.243249263080497</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.458727062256672</v>
+        <v>1.582151255660407</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.33445225785827</v>
+        <v>1.322401293842497</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.199681961945155</v>
+        <v>1.372877182170681</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.679487708708992</v>
+        <v>1.369801724532192</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.512713325231787</v>
+        <v>1.503942290931632</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.368350317956804</v>
+        <v>1.626147145894915</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.487860934710561</v>
+        <v>1.579859065450853</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.500794473624012</v>
+        <v>1.1621886418673</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.389208577377446</v>
+        <v>1.192810179635909</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.686877753278237</v>
+        <v>1.577775077971443</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.439949439945818</v>
+        <v>1.647165072122706</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.667019919716201</v>
+        <v>1.307649847326111</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.50613765501812</v>
+        <v>1.495467938720599</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.363983176263871</v>
+        <v>1.522376998870479</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.592110082355347</v>
+        <v>1.263375253032813</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.664689874989346</v>
+        <v>1.555493030409032</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.42148043887547</v>
+        <v>1.529012466560975</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.633500035476324</v>
+        <v>1.586462703529587</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.488984391148983</v>
+        <v>1.501149194003164</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.397745380034428</v>
+        <v>1.659859849321519</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.510783682993097</v>
+        <v>1.573913873710694</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.554458966899742</v>
+        <v>1.522804016464891</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.617016510420161</v>
+        <v>1.530589098989377</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.45726589061665</v>
+        <v>1.29416430343983</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.728461373675367</v>
+        <v>1.474093219108296</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.625602746156424</v>
+        <v>1.415868899064122</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.349673887830089</v>
+        <v>1.237251390432319</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.413866522585239</v>
+        <v>1.481869437320102</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.442404420564528</v>
+        <v>1.570504387620901</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.516330647735864</v>
+        <v>1.695280490013325</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.383329863439241</v>
+        <v>1.572042686906538</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.272066890193809</v>
+        <v>1.322752196631557</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.769089356149847</v>
+        <v>1.484078279912447</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.317286617792516</v>
+        <v>1.480515428329409</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.600732967579742</v>
+        <v>1.431855794874518</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.272641166998803</v>
+        <v>1.466556560569018</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.588173499368456</v>
+        <v>1.628438343008379</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.696743272493898</v>
+        <v>1.902950192428783</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.348103390949343</v>
+        <v>1.329160424041181</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.35755448405117</v>
+        <v>1.461425154803432</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.495232249092401</v>
+        <v>1.482124227690075</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.575351777617104</v>
+        <v>1.546956241468627</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1.7012766530614</v>
+        <v>1.436084409049773</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.403032476352608</v>
+        <v>1.318352947582965</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.274117978648535</v>
+        <v>1.556789155482801</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.514152990794746</v>
+        <v>1.441391080338099</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.617614262629375</v>
+        <v>1.543058490523545</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.251073737455107</v>
+        <v>1.731188733778456</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.286382565998539</v>
+        <v>1.574060254145831</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.536271790038241</v>
+        <v>1.50988153248994</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.337090600206013</v>
+        <v>1.57704876391787</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.667883201219205</v>
+        <v>1.413515046463495</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.599182524802436</v>
+        <v>1.486164056293703</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.554472369462326</v>
+        <v>1.667073133511924</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.147550877320962</v>
+        <v>1.390580646527978</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.629895239533829</v>
+        <v>1.391859067821446</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.228522051867075</v>
+        <v>1.462069795610675</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.449613007913417</v>
+        <v>1.685754037757716</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.563796675252597</v>
+        <v>1.447579699154434</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.528459595307752</v>
+        <v>1.495121744724065</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.436320117382005</v>
+        <v>1.740873536380979</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.517339550059993</v>
+        <v>1.491469083875951</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.306899742035943</v>
+        <v>1.193283175088932</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.531919747641466</v>
+        <v>1.267155625482676</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.771746251635121</v>
+        <v>1.569056470797682</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.632558875251079</v>
+        <v>1.604996933425711</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.669684266642671</v>
+        <v>1.534948731381507</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>1.392491416115868</v>
+        <v>1.782481323624543</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.967470740247412</v>
+        <v>1.417891374409735</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.569911392606597</v>
+        <v>1.632473249949306</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.580243237036508</v>
+        <v>1.506925450807335</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.446993457129221</v>
+        <v>1.687460620273904</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.401045794556671</v>
+        <v>1.599924370629086</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.48845083415404</v>
+        <v>1.42857668505521</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.556639439595146</v>
+        <v>1.226740352347209</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.727297740561871</v>
+        <v>1.307838644072327</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.759506782189234</v>
+        <v>1.395775958393786</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.044122498834445</v>
+        <v>1.639048073149838</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.472555261973395</v>
+        <v>1.528543818994349</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.475056772900596</v>
+        <v>1.585413675927702</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.389624105937239</v>
+        <v>1.364985419542788</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.456806580817737</v>
+        <v>1.402625672462729</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.641323387980933</v>
+        <v>1.114281453508386</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.715424384437559</v>
+        <v>1.501263652283575</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.299700393531113</v>
+        <v>1.779106214324093</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.359450348437557</v>
+        <v>1.67169215687931</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.500326559852729</v>
+        <v>1.743808913635101</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.474564568544968</v>
+        <v>1.797969807693439</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.734136902539852</v>
+        <v>1.418973946206592</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.516336893308603</v>
+        <v>1.746126116322125</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.739240607572645</v>
+        <v>1.261322614142948</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.637620084213956</v>
+        <v>1.541191566336949</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.456610431768251</v>
+        <v>1.457994283353946</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.47084878928682</v>
+        <v>1.49819938659973</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.412910855760564</v>
+        <v>1.317383045005206</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.469958626938438</v>
+        <v>1.613118980767478</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.693075563838703</v>
+        <v>1.419161604807126</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.436072949441248</v>
+        <v>1.622743907881294</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.446118521761303</v>
+        <v>1.781471033330349</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.351025325864154</v>
+        <v>1.206627683599871</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.49952272966676</v>
+        <v>1.313467800064306</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.620689501280446</v>
+        <v>1.378417774489581</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.849629659750588</v>
+        <v>1.33805135864696</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.468304233657826</v>
+        <v>1.773042799875899</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.517289067774864</v>
+        <v>1.227109213778013</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.215427931469574</v>
+        <v>1.559692641694303</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.613066587240278</v>
+        <v>1.764261754788712</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.394404963050654</v>
+        <v>1.323929407775317</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.4393915055798</v>
+        <v>1.440714836296956</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.343449608276919</v>
+        <v>1.529658296300137</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.775923126067589</v>
+        <v>1.375895337944095</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.47189164485837</v>
+        <v>1.741509988589875</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.5907904998765</v>
+        <v>1.522277643426402</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.406568267579549</v>
+        <v>1.656601819328526</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.460812326130481</v>
+        <v>1.292271414822609</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.537315598067952</v>
+        <v>1.352470041162019</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.56718123656337</v>
+        <v>1.369103821427927</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.663922057026051</v>
+        <v>1.484356428363936</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.474396504310366</v>
+        <v>1.498450882904792</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.975450714454068</v>
+        <v>1.513898472049813</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.668622869981172</v>
+        <v>1.331797462359367</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.463022717591884</v>
+        <v>1.517739886209567</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.687028323663383</v>
+        <v>1.455143233376811</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.494756405888808</v>
+        <v>1.546882831403836</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.395102756188126</v>
+        <v>1.45854545682549</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.219167754245025</v>
+        <v>1.167136860883694</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.312514357182901</v>
+        <v>1.719300112976886</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.656827241382251</v>
+        <v>1.218431200564879</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.529097592413952</v>
+        <v>1.240537268128309</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.355027463846012</v>
+        <v>1.686398740663479</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.451789875515447</v>
+        <v>1.412866943253815</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.267313089324579</v>
+        <v>1.741384358882522</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.405172960996272</v>
+        <v>1.729628942669426</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.5651390943667</v>
+        <v>1.349484843838358</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.365682481078796</v>
+        <v>1.490687182820191</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.938036711983293</v>
+        <v>1.374960000479772</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.624051779350225</v>
+        <v>1.326419248270988</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.486845649650566</v>
+        <v>1.411894391441023</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.498216449770359</v>
+        <v>1.398872270393563</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.44704249461702</v>
+        <v>1.42745374521827</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.500900783487532</v>
+        <v>1.445682802810841</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.381774004639767</v>
+        <v>1.600476743921772</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.561671053863239</v>
+        <v>1.40826432179933</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.464529294863796</v>
+        <v>1.330902804398793</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.640766859268001</v>
+        <v>1.422641898612815</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.594384235859292</v>
+        <v>1.273438949906218</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.457493139527123</v>
+        <v>1.858755083471506</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.574828042659573</v>
+        <v>1.544220035802055</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.562498202546696</v>
+        <v>1.500956102917234</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.207058974613321</v>
+        <v>1.15910335712321</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.370055639707143</v>
+        <v>1.185316481398166</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.195883875086994</v>
+        <v>1.289279553684681</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.52402234347914</v>
+        <v>1.346019925851846</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.533438342563089</v>
+        <v>1.508056482660894</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.517340026623249</v>
+        <v>1.496109032934402</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.402315497949443</v>
+        <v>1.479087267414306</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.483385110608171</v>
+        <v>1.673352280487074</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.688075763411742</v>
+        <v>1.721882018928843</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.701725146655142</v>
+        <v>1.592741004839799</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.641121247666796</v>
+        <v>1.64771854539599</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.485055038695783</v>
+        <v>1.319520980667613</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.476995424677183</v>
+        <v>1.43377920738927</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.55487155439864</v>
+        <v>1.465472469125395</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.175811112173327</v>
+        <v>1.656189449527097</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.570935303943282</v>
+        <v>1.629463167763118</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.609385430720295</v>
+        <v>1.640522030119574</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.478903256671195</v>
+        <v>1.617999440138459</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.610307948899848</v>
+        <v>1.442730144825174</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.60253754095829</v>
+        <v>1.531876655622984</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.290185686000566</v>
+        <v>1.600475229484742</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.487760243706497</v>
+        <v>1.341150705888512</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.48768192815454</v>
+        <v>1.463280739852538</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.860354064630742</v>
+        <v>1.831241413105727</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.612021786577361</v>
+        <v>1.480353647793191</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.606180599123839</v>
+        <v>1.574554549787909</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.466761543531327</v>
+        <v>1.702919364712005</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.371466655445656</v>
+        <v>1.549525411804927</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.631951561473789</v>
+        <v>1.604585977648478</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.604195058121224</v>
+        <v>1.445056561964451</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.54014037349854</v>
+        <v>1.1465712574614</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.563903069357225</v>
+        <v>1.453425024418039</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.663800885626969</v>
+        <v>1.582439455393104</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.6513206069638</v>
+        <v>1.6056303532923</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.443866396245495</v>
+        <v>1.419248010713105</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.399503201332628</v>
+        <v>1.615409732990412</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.251337470036477</v>
+        <v>1.369770084939249</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.306676769708535</v>
+        <v>1.708811203233365</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.425707642446399</v>
+        <v>1.459859211806283</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.726668696101837</v>
+        <v>1.377515477201449</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.587103254712596</v>
+        <v>1.591787040463634</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.523741342860887</v>
+        <v>1.403994732787251</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.300645109115606</v>
+        <v>1.607053890202346</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.440720526951365</v>
+        <v>1.467602435696047</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.379483067329207</v>
+        <v>1.304860057485261</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.724572562180564</v>
+        <v>1.528525849032261</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.648351516750593</v>
+        <v>1.428348965942352</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.329660444282875</v>
+        <v>1.545101576355348</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.469307051778173</v>
+        <v>1.354138673240264</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.676908234955091</v>
+        <v>1.554313966118107</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.638121802592488</v>
+        <v>1.678049128413994</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.534084328368219</v>
+        <v>1.607163814034131</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.316656296261609</v>
+        <v>1.572841637273797</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.32040408529491</v>
+        <v>1.531635852869699</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.58314030196491</v>
+        <v>1.610443904919905</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.354216777608182</v>
+        <v>1.657764439705456</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.497317469794246</v>
+        <v>1.552362926058912</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.451201864477131</v>
+        <v>1.383551469777443</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.499228473375225</v>
+        <v>1.349979902692923</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.322155221876394</v>
+        <v>1.627342952595448</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.724096374468395</v>
+        <v>1.267660847461852</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.552565218201248</v>
+        <v>1.676661459923384</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.485035348228231</v>
+        <v>1.507980842222049</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/21_localizer.xlsx
+++ b/sequences/21_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
     <t>dog/dog042.jpg</t>
   </si>
   <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
   </si>
   <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
   </si>
   <si>
     <t>flower/flower059.jpg</t>
   </si>
   <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
     <t>flower/flower058.jpg</t>
   </si>
   <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
     <t>face/face052.jpg</t>
   </si>
   <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
   </si>
   <si>
     <t>house/house065.jpg</t>
   </si>
   <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
   </si>
   <si>
     <t>house/house073.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
   </si>
   <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
     <t>dog/dog079.jpg</t>
   </si>
   <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
     <t>dog/dog088.jpg</t>
   </si>
   <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
     <t>dog/dog080.jpg</t>
   </si>
   <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
     <t>flower/flower090.jpg</t>
   </si>
   <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
+    <t>house/house092.jpg</t>
   </si>
   <si>
     <t>face/face085.jpg</t>
   </si>
   <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
     <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.538549121251708</v>
+        <v>1.670776827391786</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.651765788404427</v>
+        <v>1.535023634521197</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.496281837597143</v>
+        <v>1.417562225915572</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.374915640697043</v>
+        <v>1.406101594363221</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.7064551422554</v>
+        <v>1.492675482590507</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.529334270525098</v>
+        <v>1.700860014457384</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.271036164913916</v>
+        <v>1.491603843987924</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.566420651209877</v>
+        <v>1.494878893975233</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.613041573762374</v>
+        <v>1.447807463083988</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1.498202418820893</v>
+        <v>1.578041223241617</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.720168732295844</v>
+        <v>1.278875938417198</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.331627862437612</v>
+        <v>1.73360100429343</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.229227256293547</v>
+        <v>1.407718394759411</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.797742417693611</v>
+        <v>1.352610749395737</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.353107359244698</v>
+        <v>1.508158344354006</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.411924931074937</v>
+        <v>1.255818344802574</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.547035170178606</v>
+        <v>1.664371325441376</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.609631457962466</v>
+        <v>1.410218416659903</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.519348630746729</v>
+        <v>1.464751723329859</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.253655192714998</v>
+        <v>1.512027777690374</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.7282339286179</v>
+        <v>1.363061286475821</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.666440939425483</v>
+        <v>1.310035695895903</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.516486059075818</v>
+        <v>1.434501816933565</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.40979262686587</v>
+        <v>1.566737227269699</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.580332567041424</v>
+        <v>1.565236769710629</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.401028073886157</v>
+        <v>1.722315224343757</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.620542309497488</v>
+        <v>1.394343470767252</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.480865396091292</v>
+        <v>1.467906023375961</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.625954428691321</v>
+        <v>1.697387879490535</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.495269967742184</v>
+        <v>1.296117411975693</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.673550283571259</v>
+        <v>1.474801891186487</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.462679100579594</v>
+        <v>1.57714403408444</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.439598132043465</v>
+        <v>1.665898561661708</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.441454890071767</v>
+        <v>1.373253555229419</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.503384766465256</v>
+        <v>1.362588445893425</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.409042351152727</v>
+        <v>1.524820368570879</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.682568883201715</v>
+        <v>1.37996043560796</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.451815870432786</v>
+        <v>1.207100641193817</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.281543389700529</v>
+        <v>1.75928324881202</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.429242084441029</v>
+        <v>1.568880760176722</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.497988151056128</v>
+        <v>1.590964522378056</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.420471044505036</v>
+        <v>1.424616196903981</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.784453141593628</v>
+        <v>1.596883512092627</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.243249263080497</v>
+        <v>1.497050196900795</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.582151255660407</v>
+        <v>1.631004814141785</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.322401293842497</v>
+        <v>1.763587305469628</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.372877182170681</v>
+        <v>1.341555023317022</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1.369801724532192</v>
+        <v>1.388713118267732</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.503942290931632</v>
+        <v>1.546963885115654</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.626147145894915</v>
+        <v>1.407067797784982</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.579859065450853</v>
+        <v>1.895382623611322</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.1621886418673</v>
+        <v>1.344933174053794</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.192810179635909</v>
+        <v>1.448481030550151</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.577775077971443</v>
+        <v>1.774129678153401</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.647165072122706</v>
+        <v>1.518732513481153</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.307649847326111</v>
+        <v>1.751877806381697</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.495467938720599</v>
+        <v>1.502164347627122</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.522376998870479</v>
+        <v>1.167441982487738</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.263375253032813</v>
+        <v>1.47575077608701</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.555493030409032</v>
+        <v>1.520323069021274</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.529012466560975</v>
+        <v>1.364206780785072</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.586462703529587</v>
+        <v>1.571039627236845</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.501149194003164</v>
+        <v>1.583489757578997</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.659859849321519</v>
+        <v>1.322296859478515</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.573913873710694</v>
+        <v>1.278130257639226</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.522804016464891</v>
+        <v>1.788938175639337</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.530589098989377</v>
+        <v>1.497656688461848</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.29416430343983</v>
+        <v>1.400722344806128</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.474093219108296</v>
+        <v>1.563565298368909</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.415868899064122</v>
+        <v>1.571758304955058</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.237251390432319</v>
+        <v>1.59342537110191</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.481869437320102</v>
+        <v>1.572259628890861</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.570504387620901</v>
+        <v>1.542545988054034</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.695280490013325</v>
+        <v>1.410386507935037</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.572042686906538</v>
+        <v>1.404112983107473</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.322752196631557</v>
+        <v>1.309322455220707</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.484078279912447</v>
+        <v>1.451825181235897</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.480515428329409</v>
+        <v>1.365542794116755</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.431855794874518</v>
+        <v>1.185695602300423</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.466556560569018</v>
+        <v>1.378576121540174</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.628438343008379</v>
+        <v>1.310203588046515</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.902950192428783</v>
+        <v>1.549854026438543</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.329160424041181</v>
+        <v>1.764741461740897</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.461425154803432</v>
+        <v>1.636926674055114</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.482124227690075</v>
+        <v>1.732200779086493</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.546956241468627</v>
+        <v>1.447375245461785</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1.436084409049773</v>
+        <v>1.863490811586664</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.318352947582965</v>
+        <v>1.425481775217593</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.556789155482801</v>
+        <v>1.458456566429193</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.441391080338099</v>
+        <v>1.579680381047235</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.543058490523545</v>
+        <v>1.79530685825755</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.731188733778456</v>
+        <v>1.820367130066871</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.574060254145831</v>
+        <v>1.356640330544891</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.50988153248994</v>
+        <v>1.578196015554599</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.57704876391787</v>
+        <v>1.206407029675533</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.413515046463495</v>
+        <v>1.615920681715116</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.486164056293703</v>
+        <v>1.657867223194393</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.667073133511924</v>
+        <v>1.615275921527358</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.390580646527978</v>
+        <v>1.702795411679182</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.391859067821446</v>
+        <v>1.766981613646452</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.462069795610675</v>
+        <v>1.517720609138765</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.685754037757716</v>
+        <v>1.637355532186772</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.447579699154434</v>
+        <v>1.338754825166542</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.495121744724065</v>
+        <v>1.403324821698748</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.740873536380979</v>
+        <v>1.408335225153043</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.491469083875951</v>
+        <v>1.848991576863368</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.193283175088932</v>
+        <v>1.445610830584193</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.267155625482676</v>
+        <v>1.281168754698669</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.569056470797682</v>
+        <v>1.35503059475569</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.604996933425711</v>
+        <v>1.528715973594897</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.534948731381507</v>
+        <v>1.643353054862777</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.782481323624543</v>
+        <v>1.65451236586047</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.417891374409735</v>
+        <v>1.264758477329512</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.632473249949306</v>
+        <v>1.726070413620639</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.506925450807335</v>
+        <v>1.270851406307337</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.687460620273904</v>
+        <v>1.367732393184947</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.599924370629086</v>
+        <v>1.555273358896802</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.42857668505521</v>
+        <v>1.283737003236173</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.226740352347209</v>
+        <v>1.365679770921551</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.307838644072327</v>
+        <v>1.655799875762155</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.395775958393786</v>
+        <v>1.658545289510011</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.639048073149838</v>
+        <v>1.268907704748012</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.528543818994349</v>
+        <v>1.439707052973323</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.585413675927702</v>
+        <v>1.601508692231385</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.364985419542788</v>
+        <v>1.498694898065538</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.402625672462729</v>
+        <v>1.538200778764533</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.114281453508386</v>
+        <v>1.513526210036288</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.501263652283575</v>
+        <v>1.594127284915312</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.779106214324093</v>
+        <v>1.396000996065177</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.67169215687931</v>
+        <v>1.453177606412293</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.743808913635101</v>
+        <v>1.698017253406134</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.797969807693439</v>
+        <v>1.283266207402969</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.418973946206592</v>
+        <v>1.347924995568942</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.746126116322125</v>
+        <v>1.602122913951769</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.261322614142948</v>
+        <v>1.560593049392006</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.541191566336949</v>
+        <v>1.493366476402427</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.457994283353946</v>
+        <v>1.398404851059005</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.49819938659973</v>
+        <v>1.452927781843008</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.317383045005206</v>
+        <v>1.352275328031778</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.613118980767478</v>
+        <v>1.4850245566831</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.419161604807126</v>
+        <v>1.500570106227542</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.622743907881294</v>
+        <v>1.7686763541659</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.781471033330349</v>
+        <v>1.157057304518829</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.206627683599871</v>
+        <v>1.489240536975792</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.313467800064306</v>
+        <v>1.685405262808594</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.378417774489581</v>
+        <v>1.735991229280791</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.33805135864696</v>
+        <v>1.538571675318955</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.773042799875899</v>
+        <v>1.536934378602923</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.227109213778013</v>
+        <v>1.543801814253111</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.559692641694303</v>
+        <v>1.571970617710576</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.764261754788712</v>
+        <v>1.468150647362781</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.323929407775317</v>
+        <v>1.722199410450867</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.440714836296956</v>
+        <v>1.363393744486652</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.529658296300137</v>
+        <v>1.199689426718963</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.375895337944095</v>
+        <v>1.516766605245848</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.741509988589875</v>
+        <v>1.389400706930103</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.522277643426402</v>
+        <v>1.239234708659501</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.656601819328526</v>
+        <v>1.45711286096498</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.292271414822609</v>
+        <v>1.727297789376545</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.352470041162019</v>
+        <v>1.686711571401632</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.369103821427927</v>
+        <v>1.360722653939091</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.484356428363936</v>
+        <v>1.440541348348908</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.498450882904792</v>
+        <v>1.657153138864003</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.513898472049813</v>
+        <v>1.60482435909516</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.331797462359367</v>
+        <v>1.430531404456987</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.517739886209567</v>
+        <v>1.525483213117156</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.455143233376811</v>
+        <v>1.626228095748754</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.546882831403836</v>
+        <v>1.490570281461997</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.45854545682549</v>
+        <v>1.643260325386391</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.167136860883694</v>
+        <v>1.448741814510366</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.719300112976886</v>
+        <v>1.565469907370556</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.218431200564879</v>
+        <v>1.468148780653324</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.240537268128309</v>
+        <v>1.285697140220605</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.686398740663479</v>
+        <v>1.501372068765477</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.412866943253815</v>
+        <v>1.335123650639809</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.741384358882522</v>
+        <v>1.658523327896472</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.729628942669426</v>
+        <v>1.442178365186005</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.349484843838358</v>
+        <v>1.314530701997607</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.490687182820191</v>
+        <v>1.308123680541286</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.374960000479772</v>
+        <v>1.626549312176718</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.326419248270988</v>
+        <v>1.845187212811811</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.411894391441023</v>
+        <v>1.331964740524698</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.398872270393563</v>
+        <v>1.449562073048968</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.42745374521827</v>
+        <v>1.757610925237217</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.445682802810841</v>
+        <v>1.582859420282386</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.600476743921772</v>
+        <v>1.784863648184026</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.40826432179933</v>
+        <v>1.444104594209901</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.330902804398793</v>
+        <v>1.453741070970072</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.422641898612815</v>
+        <v>1.418321138116245</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.273438949906218</v>
+        <v>1.42835104621682</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.858755083471506</v>
+        <v>1.541345433053792</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.544220035802055</v>
+        <v>1.72892247664009</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.500956102917234</v>
+        <v>1.300305491129632</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.15910335712321</v>
+        <v>1.576519999932902</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.185316481398166</v>
+        <v>1.561689356074627</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.289279553684681</v>
+        <v>1.633603143675465</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.346019925851846</v>
+        <v>1.610409856430734</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.508056482660894</v>
+        <v>1.681083879325034</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.496109032934402</v>
+        <v>1.758740701883014</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.479087267414306</v>
+        <v>1.418180987986992</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.673352280487074</v>
+        <v>1.371946120550458</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.721882018928843</v>
+        <v>1.38084784314602</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.592741004839799</v>
+        <v>1.856237394784459</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.64771854539599</v>
+        <v>1.514612421181343</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.319520980667613</v>
+        <v>1.427572015005406</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.43377920738927</v>
+        <v>1.457710801191292</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.465472469125395</v>
+        <v>1.436011423362973</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.656189449527097</v>
+        <v>1.644376358454992</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.629463167763118</v>
+        <v>1.511286355529004</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.640522030119574</v>
+        <v>1.823131648571741</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.617999440138459</v>
+        <v>1.603442170786093</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.442730144825174</v>
+        <v>1.438068664168988</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.531876655622984</v>
+        <v>1.586445804593776</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.600475229484742</v>
+        <v>1.565794713801441</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.341150705888512</v>
+        <v>1.465094204020042</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.463280739852538</v>
+        <v>1.642717162737804</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.831241413105727</v>
+        <v>1.283800933627016</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.480353647793191</v>
+        <v>1.833445869995799</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.574554549787909</v>
+        <v>1.285175157075877</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.702919364712005</v>
+        <v>1.50764044293201</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.549525411804927</v>
+        <v>1.270310989533218</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.604585977648478</v>
+        <v>1.554691682912541</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.445056561964451</v>
+        <v>1.321410318353386</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.1465712574614</v>
+        <v>1.593288649016269</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.453425024418039</v>
+        <v>1.443062299226784</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.582439455393104</v>
+        <v>1.226467000347592</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.6056303532923</v>
+        <v>1.468488507010602</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.419248010713105</v>
+        <v>1.474578492314983</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.615409732990412</v>
+        <v>1.64727806279684</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>1.369770084939249</v>
+        <v>1.479502102386662</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.708811203233365</v>
+        <v>1.570708893327839</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.459859211806283</v>
+        <v>1.649395737671809</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.377515477201449</v>
+        <v>1.376061247920872</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.591787040463634</v>
+        <v>1.366141077403028</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.403994732787251</v>
+        <v>1.603830072225073</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.607053890202346</v>
+        <v>1.470585140209896</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.467602435696047</v>
+        <v>1.556889218624193</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.304860057485261</v>
+        <v>1.651773419172284</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.528525849032261</v>
+        <v>1.716494616534794</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.428348965942352</v>
+        <v>1.483395389882544</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.545101576355348</v>
+        <v>1.623968281346764</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.354138673240264</v>
+        <v>1.361249680645696</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.554313966118107</v>
+        <v>1.42517887210334</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.678049128413994</v>
+        <v>1.666468131596174</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.607163814034131</v>
+        <v>1.438756200896613</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.572841637273797</v>
+        <v>1.537122316927242</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.531635852869699</v>
+        <v>1.455295828760159</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.610443904919905</v>
+        <v>1.486409062548902</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.657764439705456</v>
+        <v>1.515897626402769</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.552362926058912</v>
+        <v>1.344437970436047</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.383551469777443</v>
+        <v>1.565576739852068</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.349979902692923</v>
+        <v>1.680151478703832</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.627342952595448</v>
+        <v>1.544457358246287</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.267660847461852</v>
+        <v>1.371189250268344</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.676661459923384</v>
+        <v>1.568339751653278</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.507980842222049</v>
+        <v>1.509658323771848</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/21_localizer.xlsx
+++ b/sequences/21_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
   </si>
   <si>
     <t>house/house032.jpg</t>
   </si>
   <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
   </si>
   <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
   </si>
   <si>
     <t>house/house059.jpg</t>
   </si>
   <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
     <t>face/face050.jpg</t>
   </si>
   <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
     <t>flower/flower053.jpg</t>
   </si>
   <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
     <t>flower/flower056.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
   </si>
   <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
     <t>house/house051.jpg</t>
   </si>
   <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
     <t>face/face048.jpg</t>
   </si>
   <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
   </si>
   <si>
     <t>face/face064.jpg</t>
   </si>
   <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
+    <t>dog/dog074.jpg</t>
   </si>
   <si>
     <t>house/house076.jpg</t>
   </si>
   <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
   </si>
   <si>
     <t>dog/dog065.jpg</t>
   </si>
   <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>dog/dog088.jpg</t>
   </si>
   <si>
-    <t>dog/dog092.jpg</t>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
   </si>
   <si>
     <t>face/face080.jpg</t>
   </si>
   <si>
-    <t>face/face088.jpg</t>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
   </si>
   <si>
     <t>face/face087.jpg</t>
   </si>
   <si>
-    <t>flower/flower086.jpg</t>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
     <t>flower/flower087.jpg</t>
   </si>
   <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
   </si>
   <si>
     <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.670776827391786</v>
+        <v>1.974388042363987</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.535023634521197</v>
+        <v>1.363384406957515</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.417562225915572</v>
+        <v>1.180804673238737</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.406101594363221</v>
+        <v>1.604905199900883</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.492675482590507</v>
+        <v>1.488509548466967</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.700860014457384</v>
+        <v>1.30835283192582</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.491603843987924</v>
+        <v>1.342885575279581</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.494878893975233</v>
+        <v>1.454984382618546</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.447807463083988</v>
+        <v>1.576827264373995</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1.578041223241617</v>
+        <v>1.530336218286315</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.278875938417198</v>
+        <v>1.602147974998221</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.73360100429343</v>
+        <v>1.621574212636119</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.407718394759411</v>
+        <v>1.317049092369248</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.352610749395737</v>
+        <v>1.434291244719142</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.508158344354006</v>
+        <v>1.593299719952022</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.255818344802574</v>
+        <v>1.703934711109505</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.664371325441376</v>
+        <v>1.439695363552903</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.410218416659903</v>
+        <v>1.338870583938075</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.464751723329859</v>
+        <v>1.882382108460551</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.512027777690374</v>
+        <v>1.670508893886064</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.363061286475821</v>
+        <v>1.726110283332113</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.310035695895903</v>
+        <v>1.807671031116724</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.434501816933565</v>
+        <v>1.63780113213463</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.566737227269699</v>
+        <v>1.321817597545449</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.565236769710629</v>
+        <v>1.45792665607713</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.722315224343757</v>
+        <v>1.639339818654365</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.394343470767252</v>
+        <v>1.427696491814072</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.467906023375961</v>
+        <v>1.486388165806031</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.697387879490535</v>
+        <v>1.39770539828748</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.296117411975693</v>
+        <v>1.302531683033036</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.474801891186487</v>
+        <v>1.56775456624465</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.57714403408444</v>
+        <v>1.621740859795305</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.665898561661708</v>
+        <v>1.377613183703017</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.373253555229419</v>
+        <v>1.353498993373857</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.362588445893425</v>
+        <v>1.525296483627188</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.524820368570879</v>
+        <v>1.63564855574288</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.37996043560796</v>
+        <v>1.42067959337373</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.207100641193817</v>
+        <v>1.050700064267851</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.75928324881202</v>
+        <v>1.228710080289775</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.568880760176722</v>
+        <v>1.526367945616823</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.590964522378056</v>
+        <v>1.559181995578943</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.424616196903981</v>
+        <v>1.602601902693572</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.596883512092627</v>
+        <v>1.705627223677337</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.497050196900795</v>
+        <v>1.567048546542016</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.631004814141785</v>
+        <v>1.53484949928684</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.763587305469628</v>
+        <v>1.415779344441864</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.341555023317022</v>
+        <v>1.722343042614137</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.388713118267732</v>
+        <v>1.556676855120612</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.546963885115654</v>
+        <v>1.534751529388751</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.407067797784982</v>
+        <v>1.570528915223278</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.895382623611322</v>
+        <v>1.555041614729318</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.344933174053794</v>
+        <v>1.58925772454414</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.448481030550151</v>
+        <v>1.621614205236062</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.774129678153401</v>
+        <v>1.740069096071505</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.518732513481153</v>
+        <v>1.387202829409442</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.751877806381697</v>
+        <v>1.680798940539308</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.502164347627122</v>
+        <v>1.383584798307442</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.167441982487738</v>
+        <v>1.346470750732052</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.47575077608701</v>
+        <v>1.377303353936829</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.520323069021274</v>
+        <v>1.625038073447324</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.364206780785072</v>
+        <v>1.616696774019301</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.571039627236845</v>
+        <v>1.616796271190814</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.583489757578997</v>
+        <v>1.750182788760713</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.322296859478515</v>
+        <v>1.539620719016321</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.278130257639226</v>
+        <v>1.523799520718302</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.788938175639337</v>
+        <v>1.373267666122777</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.497656688461848</v>
+        <v>1.68663042387218</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.400722344806128</v>
+        <v>1.310867483741684</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.563565298368909</v>
+        <v>1.460814227995797</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.571758304955058</v>
+        <v>1.603824820029659</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.59342537110191</v>
+        <v>1.455445671288066</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.572259628890861</v>
+        <v>1.701044257766512</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>1.542545988054034</v>
+        <v>1.441380853602542</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.410386507935037</v>
+        <v>1.582560232159176</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.404112983107473</v>
+        <v>1.739190330465697</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.309322455220707</v>
+        <v>1.623954034208265</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.451825181235897</v>
+        <v>1.383250140013864</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.365542794116755</v>
+        <v>1.7084790321133</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.185695602300423</v>
+        <v>1.480756525854422</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.378576121540174</v>
+        <v>1.560590100422687</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.310203588046515</v>
+        <v>1.307829741593332</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.549854026438543</v>
+        <v>1.480811497397571</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.764741461740897</v>
+        <v>1.311960559853377</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.636926674055114</v>
+        <v>1.630385889187479</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.732200779086493</v>
+        <v>1.366035345039887</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.447375245461785</v>
+        <v>1.353778428863842</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.863490811586664</v>
+        <v>1.550183183660538</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.425481775217593</v>
+        <v>1.436154402277507</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.458456566429193</v>
+        <v>1.522850034582028</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.579680381047235</v>
+        <v>1.560745143974515</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.79530685825755</v>
+        <v>1.397583514436808</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.820367130066871</v>
+        <v>1.329650884175507</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.356640330544891</v>
+        <v>1.481842569202897</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.578196015554599</v>
+        <v>1.520543156444378</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.206407029675533</v>
+        <v>1.437287608343785</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.615920681715116</v>
+        <v>1.165018882224475</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.657867223194393</v>
+        <v>1.535438117603062</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.615275921527358</v>
+        <v>1.567715008652131</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.702795411679182</v>
+        <v>1.30496374274578</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.766981613646452</v>
+        <v>1.650134047762617</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.517720609138765</v>
+        <v>1.602797404340353</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.637355532186772</v>
+        <v>1.677635965371741</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.338754825166542</v>
+        <v>1.434973724204701</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.403324821698748</v>
+        <v>1.222565198669533</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.408335225153043</v>
+        <v>1.604619019078959</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.848991576863368</v>
+        <v>1.67119155674814</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.445610830584193</v>
+        <v>1.461811839614153</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.281168754698669</v>
+        <v>1.582093937337105</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.35503059475569</v>
+        <v>1.491486183544923</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.528715973594897</v>
+        <v>1.643948598493238</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.643353054862777</v>
+        <v>1.630259402308984</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.65451236586047</v>
+        <v>1.389082967994474</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.264758477329512</v>
+        <v>1.404037003213439</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.726070413620639</v>
+        <v>1.323653125480947</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.270851406307337</v>
+        <v>1.426353483938548</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.367732393184947</v>
+        <v>1.513258740962514</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.555273358896802</v>
+        <v>1.395768122719675</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.283737003236173</v>
+        <v>1.388009180483145</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.365679770921551</v>
+        <v>1.556022310754864</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.655799875762155</v>
+        <v>1.389465157584421</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.658545289510011</v>
+        <v>1.57641831632246</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.268907704748012</v>
+        <v>1.453941529972284</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.439707052973323</v>
+        <v>1.563783784711493</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.601508692231385</v>
+        <v>1.484071825065936</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.498694898065538</v>
+        <v>1.602256371399064</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.538200778764533</v>
+        <v>1.328919938922554</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.513526210036288</v>
+        <v>1.316862582320407</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.594127284915312</v>
+        <v>1.715544919892022</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.396000996065177</v>
+        <v>1.510365275724926</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.453177606412293</v>
+        <v>1.667310213209126</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.698017253406134</v>
+        <v>1.42954101974678</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.283266207402969</v>
+        <v>1.826245783699604</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.347924995568942</v>
+        <v>1.648028071498698</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.602122913951769</v>
+        <v>1.601314375913061</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.560593049392006</v>
+        <v>1.338974656870152</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.493366476402427</v>
+        <v>1.55323482299279</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.398404851059005</v>
+        <v>1.186535922828371</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.452927781843008</v>
+        <v>1.444481432223333</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.352275328031778</v>
+        <v>1.585085992842749</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.4850245566831</v>
+        <v>1.688423545935931</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.500570106227542</v>
+        <v>1.613276290772145</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.7686763541659</v>
+        <v>1.345072818413878</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.157057304518829</v>
+        <v>1.58713272267493</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.489240536975792</v>
+        <v>1.608644428777319</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.685405262808594</v>
+        <v>1.798734004687194</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.735991229280791</v>
+        <v>1.524732315419823</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.538571675318955</v>
+        <v>1.750199068910233</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.536934378602923</v>
+        <v>1.403719902569684</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.543801814253111</v>
+        <v>1.313354536760783</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.571970617710576</v>
+        <v>1.302367590914692</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.468150647362781</v>
+        <v>1.307659668476492</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.722199410450867</v>
+        <v>1.459057448517614</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.363393744486652</v>
+        <v>1.609851826099152</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>1.199689426718963</v>
+        <v>1.637123687945447</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.516766605245848</v>
+        <v>1.436551207263917</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.389400706930103</v>
+        <v>1.837263680298153</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.239234708659501</v>
+        <v>1.364329761675392</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.45711286096498</v>
+        <v>1.522014092051932</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.727297789376545</v>
+        <v>1.738969526407472</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.686711571401632</v>
+        <v>1.323656915436875</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.360722653939091</v>
+        <v>1.754672971996382</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.440541348348908</v>
+        <v>1.622924835662317</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.657153138864003</v>
+        <v>1.439824179069575</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.60482435909516</v>
+        <v>1.529111303900294</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.430531404456987</v>
+        <v>1.332270936126051</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.525483213117156</v>
+        <v>1.32945278565457</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.626228095748754</v>
+        <v>1.610009229653348</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.490570281461997</v>
+        <v>1.592219937299655</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.643260325386391</v>
+        <v>1.535624731331684</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.448741814510366</v>
+        <v>1.108920689762422</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.565469907370556</v>
+        <v>1.587595925521047</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.468148780653324</v>
+        <v>1.463277247194096</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.285697140220605</v>
+        <v>1.355834399642245</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.501372068765477</v>
+        <v>1.381980405202138</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.335123650639809</v>
+        <v>1.5821715193866</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.658523327896472</v>
+        <v>1.487373769352636</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.442178365186005</v>
+        <v>1.409189685957799</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>1.314530701997607</v>
+        <v>1.626443926810029</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.308123680541286</v>
+        <v>1.375508072798309</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.626549312176718</v>
+        <v>1.66951484116078</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.845187212811811</v>
+        <v>1.583740818177342</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.331964740524698</v>
+        <v>1.579498300709731</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.449562073048968</v>
+        <v>1.46912038072674</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.757610925237217</v>
+        <v>1.401573780311408</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.582859420282386</v>
+        <v>1.664164731116563</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.784863648184026</v>
+        <v>1.813174578188802</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.444104594209901</v>
+        <v>1.176206453895498</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.453741070970072</v>
+        <v>1.52446866541084</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.418321138116245</v>
+        <v>1.225891453579562</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.42835104621682</v>
+        <v>1.558716876162993</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.541345433053792</v>
+        <v>1.512548718963846</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.72892247664009</v>
+        <v>1.719943346081215</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.300305491129632</v>
+        <v>1.655036325606395</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>1.576519999932902</v>
+        <v>1.487127341456671</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.561689356074627</v>
+        <v>1.417775244050505</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.633603143675465</v>
+        <v>1.370760696058126</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.610409856430734</v>
+        <v>1.14738022608563</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.681083879325034</v>
+        <v>1.318801166134585</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.758740701883014</v>
+        <v>1.367921041496384</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.418180987986992</v>
+        <v>1.664891282316466</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.371946120550458</v>
+        <v>1.384432309633537</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.38084784314602</v>
+        <v>1.612242952631466</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.856237394784459</v>
+        <v>1.681015985739221</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.514612421181343</v>
+        <v>1.188476141915714</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.427572015005406</v>
+        <v>1.396418623328827</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.457710801191292</v>
+        <v>1.62219779750658</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.436011423362973</v>
+        <v>1.46505401185879</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.644376358454992</v>
+        <v>1.260128145852137</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.511286355529004</v>
+        <v>1.441887244173004</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.823131648571741</v>
+        <v>1.320444321769165</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.603442170786093</v>
+        <v>1.566254006509552</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.438068664168988</v>
+        <v>1.666170244864384</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.586445804593776</v>
+        <v>1.425205714122425</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.565794713801441</v>
+        <v>1.511851247452409</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.465094204020042</v>
+        <v>1.644871757253189</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.642717162737804</v>
+        <v>1.524783498094102</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.283800933627016</v>
+        <v>1.579808336023332</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.833445869995799</v>
+        <v>1.379822029499109</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.285175157075877</v>
+        <v>1.220317680062939</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.50764044293201</v>
+        <v>1.632750364839626</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.270310989533218</v>
+        <v>1.569315998336387</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.554691682912541</v>
+        <v>1.42270483091339</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.321410318353386</v>
+        <v>1.581403817546501</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.593288649016269</v>
+        <v>1.379112838180249</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.443062299226784</v>
+        <v>1.426199062519886</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>1.226467000347592</v>
+        <v>1.399574424832128</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.468488507010602</v>
+        <v>1.496923359785365</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.474578492314983</v>
+        <v>1.282094641388175</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.64727806279684</v>
+        <v>1.513193198043332</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.479502102386662</v>
+        <v>1.533142409287606</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.570708893327839</v>
+        <v>1.472531163004951</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.649395737671809</v>
+        <v>1.298324519480024</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.376061247920872</v>
+        <v>1.519808234213055</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.366141077403028</v>
+        <v>1.650941952357611</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.603830072225073</v>
+        <v>1.348215824483788</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.470585140209896</v>
+        <v>1.308030960851311</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.556889218624193</v>
+        <v>1.247489219638888</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.651773419172284</v>
+        <v>1.432373387950399</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.716494616534794</v>
+        <v>1.300835024107604</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.483395389882544</v>
+        <v>1.210289875687169</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.623968281346764</v>
+        <v>1.490907395160264</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.361249680645696</v>
+        <v>1.609543609125096</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.42517887210334</v>
+        <v>1.509673716449028</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.666468131596174</v>
+        <v>1.674950024245287</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.438756200896613</v>
+        <v>1.52321513273554</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.537122316927242</v>
+        <v>1.631789141096595</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.455295828760159</v>
+        <v>1.55830730725909</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.486409062548902</v>
+        <v>1.416627340099657</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.515897626402769</v>
+        <v>1.414719845601556</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.344437970436047</v>
+        <v>1.69057708900343</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.565576739852068</v>
+        <v>1.742590278547323</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.680151478703832</v>
+        <v>1.642671324228808</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.544457358246287</v>
+        <v>1.651819039817668</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.371189250268344</v>
+        <v>1.641946363933703</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.568339751653278</v>
+        <v>1.609060250177013</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.509658323771848</v>
+        <v>1.530019284128713</v>
       </c>
     </row>
   </sheetData>
